--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,21 +700,21 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>21713283</v>
+        <v>21714575</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22638199</v>
+        <v>22639336</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45713.39460648148</v>
+        <v>45713.49849537037</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45713.41020833333</v>
+        <v>45714.38581018519</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
@@ -728,31 +728,31 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>4V0PPJ</t>
+          <t>FNXMNJ01</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>DIEGO FERNANDO PEREIRA</t>
+          <t>CARLOS LIMA/RONIERI</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L2" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45712.39444444444</v>
+        <v>45713.49652777778</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -771,12 +771,12 @@
       </c>
       <c r="Q2" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R2" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S2" s="5" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Franciscon</t>
+          <t>Mei Instalacao Industrial Ltda</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -806,11 +806,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2221136617</v>
+        <v>2132751542</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>369.81</v>
+        <v>1787.95</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>34.6</v>
+        <v>370</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -841,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>18.49</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -885,16 +885,16 @@
       </c>
       <c r="AQ2" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>21713634</v>
+        <v>21720224</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>22638449</v>
+        <v>22644188</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
@@ -902,10 +902,10 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45713.4321875</v>
+        <v>45714.3720949074</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45713.43388888889</v>
+        <v>45714.37346064814</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>SUCWYY</t>
+          <t>TK7MFZ</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>Montenegro Sampaio e Silva/Diego</t>
+          <t>SIQUEIRA DIAS/PIERRE</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45713.42708333334</v>
+        <v>45714.35972222222</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -962,12 +962,12 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Yaro Comercio e Importacao Ltda</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -997,11 +997,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2132962550</v>
+        <v>109289181</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>1248.74</v>
+        <v>400</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>104.89</v>
+        <v>36.67</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>62.44</v>
+        <v>20</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1082,10 +1082,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>21713847</v>
+        <v>21720610</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>22638675</v>
+        <v>22644538</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45713.46149305555</v>
+        <v>45714.42533564815</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45713.46775462963</v>
+        <v>45714.43467592593</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>NNRTWH</t>
+          <t>NHCNJN</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>DAYANE SOUZA</t>
+          <t>CHAHRAM ZOLFAGHARI</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45712.46111111111</v>
+        <v>45709.425</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Pse Ltda</t>
+          <t>Brazil Tower, Cessao de Infra-estruturas</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>American Airlines</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2221168342</v>
+        <v>2872392006</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>215.12</v>
+        <v>24347.11</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>244.16</v>
+        <v>476.48</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
@@ -1273,21 +1273,21 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>21714407</v>
+        <v>21720912</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>22639210</v>
+        <v>22644777</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45713.4865162037</v>
+        <v>45714.47354166667</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45713.49428240741</v>
+        <v>45714.47586805555</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>SRPQ8B</t>
+          <t>LA9573375XOEE</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>VITOR CARVALHO PONTES</t>
+          <t>de Oliveira/Thiago</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45713.48611111111</v>
+        <v>45714.46944444445</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Wps Brasil Ltda</t>
+          <t>Delphi Fretes Internacionais Eireli</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>3022639209</v>
+        <v>2221468967</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>914.17</v>
+        <v>347.92</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>58.89</v>
+        <v>31.44</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1464,10 +1464,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>21714575</v>
+        <v>21721185</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>22639336</v>
+        <v>22645031</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45713.49849537037</v>
+        <v>45714.49144675926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45713.50109953704</v>
+        <v>45714.49412037037</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1492,31 +1492,31 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>FNXMNJ</t>
+          <t>HZJCFB01</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>CARLOS LIMA/RONIERI</t>
+          <t>PIERMARTIRI/MAXIMILIANO</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Higor Peixoto Carrera de Lima</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Higor Peixoto Carrera de Lima</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45713.49652777778</v>
+        <v>45702.14305555556</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1535,12 +1535,12 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Faturado</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Mei Instalacao Industrial Ltda</t>
+          <t>Anaconda Industrial e Agricola de Cereais S a</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2132751542</v>
+        <v>4445531981</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>1787.95</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>ORIGINADO DE BNC</t>
         </is>
       </c>
       <c r="AJ6" s="5" t="inlineStr">
@@ -1655,21 +1655,21 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>21714576</v>
+        <v>21721871</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>22639348</v>
+        <v>22645668</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45713.49807870371</v>
+        <v>45714.57072916667</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45713.50373842593</v>
+        <v>45714.57104166667</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -1683,31 +1683,31 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>FGJHGV</t>
+          <t>IYRSKD</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>THALES RODRIGUES</t>
+          <t>PESSOA/VALTON</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L7" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45709.49791666667</v>
+        <v>45714.06875</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Baktron Microbiologia</t>
+          <t>Pessoa e Pessoa Advogados Associados</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>2220789835</v>
+        <v>823322172</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>328.41</v>
+        <v>260</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>44.27</v>
+        <v>104.89</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1796,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>16.42</v>
+        <v>135.11</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
@@ -1846,21 +1846,21 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>21714609</v>
+        <v>21722283</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>22639400</v>
+        <v>22646035</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45713.50296296296</v>
+        <v>45714.6290625</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45713.50805555555</v>
+        <v>45714.63005787037</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -1874,31 +1874,31 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>HVIJXO</t>
+          <t>LNRFCA</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>LARISSA CASTRO</t>
+          <t>Araujo/Alexandre</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45709.50277777778</v>
+        <v>45714.12847222222</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1917,12 +1917,12 @@
       </c>
       <c r="Q8" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R8" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S8" s="5" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Contabilidade Facilitada Educacional Ltda</t>
+          <t>Galera Gaming Jogos Eletronicos</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>2220793344</v>
+        <v>2221507115</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>448.92</v>
+        <v>154.41</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>63.13</v>
+        <v>400</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1987,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>22.45</v>
+        <v>40</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ8" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK8" s="5" t="inlineStr">
@@ -2006,17 +2006,17 @@
       </c>
       <c r="AL8" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM8" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN8" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO8" s="5" t="inlineStr">
@@ -2031,27 +2031,27 @@
       </c>
       <c r="AQ8" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>21714643</v>
+        <v>21722287</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>22639417</v>
+        <v>22646038</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45713.50784722222</v>
+        <v>45714.62917824074</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45713.51440972222</v>
+        <v>45714.63032407407</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
@@ -2065,31 +2065,31 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>RGB27V</t>
+          <t>ZDH2YE</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>WAGNER SANTANA DE SOUZA</t>
+          <t>Victor Moura Bezerra/Andre</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L9" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45709.50763888889</v>
+        <v>45714.11944444444</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Instituto Atlantico</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>3022639416</v>
+        <v>999359973</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>926.7</v>
+        <v>554.17</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>46.36</v>
+        <v>56.02</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2178,16 +2178,16 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="n">
-        <v>37.07</v>
+        <v>62.81</v>
       </c>
       <c r="AI9" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="AL9" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM9" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN9" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO9" s="5" t="inlineStr">
@@ -2222,27 +2222,27 @@
       </c>
       <c r="AQ9" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>21714783</v>
+        <v>21722287</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>22639544</v>
+        <v>22646039</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45713.52809027778</v>
+        <v>45714.62917824074</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45713.5327662037</v>
+        <v>45714.63032407407</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
@@ -2256,31 +2256,31 @@
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>FGHKFS</t>
+          <t>ZDH2YE</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>MARIA HELENA ARAUJO</t>
+          <t>Rulian Lima Jorge/Webster</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L10" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45709.52777777778</v>
+        <v>45714.11944444444</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Martinho e Maranhao Consultoria Empresarial Na Area Alimenticia Ltda.</t>
+          <t>Instituto Atlantico</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>3022639543</v>
+        <v>780874312</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>1573.79</v>
+        <v>554.17</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>89.20999999999999</v>
+        <v>56.02</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2369,16 +2369,16 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="n">
-        <v>78.69</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2388,17 +2388,17 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO10" s="5" t="inlineStr">
@@ -2419,10 +2419,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>21715252</v>
+        <v>21722653</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>22639987</v>
+        <v>22646373</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45713.5978587963</v>
+        <v>45714.67627314815</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45713.60907407408</v>
+        <v>45714.68427083334</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
@@ -2447,31 +2447,31 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>KW5EXN</t>
+          <t>PL8RMW</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>VITOR CARVALHO PONTES</t>
+          <t>Oliva/Daniela</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L11" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45712.59722222222</v>
+        <v>45714.16805555556</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Wps Brasil Ltda</t>
+          <t>Inspirar - Centro de Estudos</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>3022639986</v>
+        <v>945697025</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>676.0599999999999</v>
+        <v>159.9</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>103.16</v>
+        <v>46.72</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI11" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="AL11" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM11" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN11" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO11" s="5" t="inlineStr">
@@ -2604,27 +2604,27 @@
       </c>
       <c r="AQ11" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>21715252</v>
+        <v>21722693</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>22639996</v>
+        <v>22646414</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>45713.5978587963</v>
+        <v>45714.68181712963</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>45713.60907407408</v>
+        <v>45714.68643518518</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -2638,31 +2638,31 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>KW5EXN</t>
+          <t>UXGDJH</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>CARLOS DIEGO DE JESUS FREITAS</t>
+          <t>Silva/Henrique</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>45712.59722222222</v>
+        <v>45714.10833333333</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R12" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="U12" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>Wps Brasil Ltda</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2716,11 +2716,11 @@
       </c>
       <c r="X12" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y12" s="5" t="n">
-        <v>3022639998</v>
+        <v>2133054965</v>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>676.0599999999999</v>
+        <v>1281.26</v>
       </c>
       <c r="AC12" s="5" t="n">
-        <v>103.16</v>
+        <v>47.02</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5" t="n">
-        <v>0</v>
+        <v>64.06</v>
       </c>
       <c r="AI12" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ12" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK12" s="5" t="inlineStr">
@@ -2775,7 +2775,7 @@
       </c>
       <c r="AM12" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN12" s="5" t="inlineStr">
@@ -2801,21 +2801,21 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>21716075</v>
+        <v>21722789</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>22640702</v>
+        <v>22646496</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>45713.69956018519</v>
+        <v>45714.69570601852</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>45713.70521990741</v>
+        <v>45714.69671296296</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -2829,31 +2829,31 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>MMIV2A</t>
+          <t>LA9577468BIYO</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>HIGOR JOIA</t>
+          <t>Silva/Henrique</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>45712.69930555556</v>
+        <v>45714.11388888889</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S13" s="5" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="U13" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Service Engenharia</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2907,11 +2907,11 @@
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y13" s="5" t="n">
-        <v>3022640701</v>
+        <v>2221526832</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>845.17</v>
+        <v>1213</v>
       </c>
       <c r="AC13" s="5" t="n">
-        <v>8.890000000000001</v>
+        <v>60.62</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5" t="n">
-        <v>47.89</v>
+        <v>18.19</v>
       </c>
       <c r="AI13" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ13" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK13" s="5" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="AM13" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN13" s="5" t="inlineStr">
@@ -2986,27 +2986,27 @@
       </c>
       <c r="AQ13" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>21717105</v>
+        <v>21722888</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>22641694</v>
+        <v>22646582</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45713.75429398148</v>
+        <v>45714.70685185185</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45713.76081018519</v>
+        <v>45714.70896990741</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
@@ -3020,31 +3020,31 @@
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>FRPSUB</t>
+          <t>YDWEHR</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>DANILO ARAUJO DA SILVA</t>
+          <t>Aguiar Saraiva/Martina</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L14" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45708.75416666667</v>
+        <v>45714.19861111111</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>Tittanium Engenharia Manutencoes e Instalacoes Ltda</t>
+          <t>Instituto Atlantico</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>3022641693</v>
+        <v>359785193</v>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>793.3200000000001</v>
+        <v>554.17</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>44.82</v>
+        <v>56.02</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>0</v>
@@ -3133,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>31.73</v>
+        <v>31.4</v>
       </c>
       <c r="AI14" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ14" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
         </is>
       </c>
       <c r="AK14" s="5" t="inlineStr">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="AL14" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM14" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN14" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO14" s="5" t="inlineStr">
@@ -3177,7 +3177,580 @@
       </c>
       <c r="AQ14" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>21722984</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>22646671</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45714.71803240741</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45714.72113425926</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>wqouwq</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>BEZERRA DA SILVA/EDIVAL</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>45714.21736111111</v>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>Brandares Imoveis</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>2133053764</v>
+      </c>
+      <c r="Z15" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <v>604.89</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <v>78.04000000000001</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ15" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK15" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL15" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM15" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN15" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO15" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP15" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ15" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
+        <v>21722984</v>
+      </c>
+      <c r="B16" s="5" t="n">
+        <v>22646672</v>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>45714.71803240741</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45714.72113425926</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>wqouwq</t>
+        </is>
+      </c>
+      <c r="I16" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>SILVA/THAWANE</t>
+        </is>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="n">
+        <v>45714.21736111111</v>
+      </c>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q16" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R16" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S16" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T16" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U16" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V16" s="5" t="inlineStr">
+        <is>
+          <t>Brandares Imoveis</t>
+        </is>
+      </c>
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y16" s="5" t="n">
+        <v>2133053776</v>
+      </c>
+      <c r="Z16" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" s="5" t="n">
+        <v>604.89</v>
+      </c>
+      <c r="AC16" s="5" t="n">
+        <v>78.04000000000001</v>
+      </c>
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ16" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK16" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL16" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM16" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN16" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO16" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP16" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ16" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>21723383</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>22647049</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>45714.74324074074</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45714.74435185185</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>SJVYRW</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>BAHIA/DIOGO</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>45714.24236111111</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>Opportunity Gestora</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>2133060379</v>
+      </c>
+      <c r="Z17" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>833.09</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>104.89</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>41.65</v>
+      </c>
+      <c r="AI17" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ17" s="5" t="inlineStr">
+        <is>
+          <t>Verificação de bilhetes: Bilhete 2133060379 já sendo utilizado para este fornecedor.</t>
+        </is>
+      </c>
+      <c r="AK17" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL17" s="5" t="inlineStr">
+        <is>
+          <t>Bilhete duplicado</t>
+        </is>
+      </c>
+      <c r="AM17" s="5" t="inlineStr">
+        <is>
+          <t>Bilhete Já Contabilizado</t>
+        </is>
+      </c>
+      <c r="AN17" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO17" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP17" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ17" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,10 +700,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>21714575</v>
+        <v>21768114</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22639336</v>
+        <v>22687884</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45713.49849537037</v>
+        <v>45722.57069444445</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45714.38581018519</v>
+        <v>45722.58175925926</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>FNXMNJ01</t>
+          <t>LA9577716BKEK</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>CARLOS LIMA/RONIERI</t>
+          <t>Antunes/Carlos</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45713.49652777778</v>
+        <v>45722.50208333333</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -791,12 +791,12 @@
       </c>
       <c r="U2" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Mei Instalacao Industrial Ltda</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -806,11 +806,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2132751542</v>
+        <v>2222509202</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>1787.95</v>
+        <v>418.51</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>370</v>
+        <v>60.62</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>0</v>
+        <v>12.56</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2222509202 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -860,12 +860,12 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
@@ -891,21 +891,21 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>21720224</v>
+        <v>21768114</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>22644188</v>
+        <v>22687885</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45714.3720949074</v>
+        <v>45722.57069444445</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45714.37346064814</v>
+        <v>45722.58175925926</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
@@ -919,7 +919,7 @@
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>TK7MFZ</t>
+          <t>LA9577716BKEK</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>SIQUEIRA DIAS/PIERRE</t>
+          <t>Carmo/Renata</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45714.35972222222</v>
+        <v>45722.50208333333</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -962,12 +962,12 @@
       </c>
       <c r="Q3" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R3" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S3" s="5" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="U3" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Yaro Comercio e Importacao Ltda</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -997,11 +997,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>109289181</v>
+        <v>2222509202</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>400</v>
+        <v>418.52</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>36.67</v>
+        <v>60.62</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Verificação de bilhetes: Bilhete 2222509202 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1076,65 +1076,65 @@
       </c>
       <c r="AQ3" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>21720610</v>
+        <v>21745148</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>22644538</v>
+        <v>22667272</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45714.42533564815</v>
+        <v>45717.79009259259</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45714.43467592593</v>
+        <v>45717.79211805556</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>NHCNJN</t>
+          <t>LA9579331OAHU</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>CHAHRAM ZOLFAGHARI</t>
+          <t>Di Bernardo do Carmo/Renata</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45709.425</v>
+        <v>45717.04166666666</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Brazil Tower, Cessao de Infra-estruturas</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>American Airlines</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2872392006</v>
+        <v>2221972532</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>24347.11</v>
+        <v>1338.72</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>476.48</v>
+        <v>60.62</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>0</v>
+        <v>20.08</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="AQ4" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>21720912</v>
+        <v>21745181</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>22644777</v>
+        <v>22667297</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -1284,24 +1284,24 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45714.47354166667</v>
+        <v>45717.79981481482</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45714.47586805555</v>
+        <v>45717.80064814815</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LA9573375XOEE</t>
+          <t>GOWABD</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>de Oliveira/Thiago</t>
+          <t>Di Bernardo do Carmo/Renata</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45714.46944444445</v>
+        <v>45717.04444444444</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1364,12 +1364,12 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Delphi Fretes Internacionais Eireli</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2221468967</v>
+        <v>2133247233</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>347.92</v>
+        <v>953.13</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>31.44</v>
+        <v>47.02</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>5.92</v>
+        <v>47.66</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1458,16 +1458,16 @@
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>21721185</v>
+        <v>21756752</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>22645031</v>
+        <v>22677092</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45714.49144675926</v>
+        <v>45720.57206018519</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45714.49412037037</v>
+        <v>45722.79</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1487,36 +1487,36 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>HZJCFB01</t>
+          <t>LA9579495MBUW</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>PIERMARTIRI/MAXIMILIANO</t>
+          <t>Francisco Dias/Helcio</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
         <is>
-          <t>Higor Peixoto Carrera de Lima</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L6" s="5" t="inlineStr">
         <is>
-          <t>Higor Peixoto Carrera de Lima</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45702.14305555556</v>
+        <v>45720.06875</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Faturado</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Anaconda Industrial e Agricola de Cereais S a</t>
+          <t>Aceflex do Nordeste Contentores Flexiveis Ltda</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>4445531981</v>
+        <v>2222235991</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>0</v>
+        <v>593.52</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>0</v>
+        <v>34.59</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1605,16 +1605,16 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>0</v>
+        <v>10.15</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
-          <t>ORIGINADO DE BNC</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 04/03/2025</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1649,16 +1649,16 @@
       </c>
       <c r="AQ6" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>21721871</v>
+        <v>21737825</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>22645668</v>
+        <v>22660743</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -1666,24 +1666,24 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45714.57072916667</v>
+        <v>45716.60270833333</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45714.57104166667</v>
+        <v>45716.6050462963</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>IYRSKD</t>
+          <t>LA9579849ISFU</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>PESSOA/VALTON</t>
+          <t>Aguiar Alvim/Marcelo</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45714.06875</v>
+        <v>45716.09722222222</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Quality Automacao Ltda</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>823322172</v>
+        <v>2221819918</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>260</v>
+        <v>575.12</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>104.89</v>
+        <v>47.91</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>135.11</v>
+        <v>9.83</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 28/02/2025</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1840,16 +1840,16 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>21722283</v>
+        <v>21760856</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>22646035</v>
+        <v>22680723</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45714.6290625</v>
+        <v>45721.48592592592</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45714.63005787037</v>
+        <v>45721.73508101852</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>LNRFCA</t>
+          <t>EYXSAS</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>Araujo/Alexandre</t>
+          <t>PEREIRA LIMA/CRISTIANE</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45714.12847222222</v>
+        <v>45721.48472222222</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Galera Gaming Jogos Eletronicos</t>
+          <t>Kontrip - Vendas Cartao de Credito</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>2221507115</v>
+        <v>2219616515</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>154.41</v>
+        <v>1118.35</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>400</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>21722287</v>
+        <v>21761986</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>22646038</v>
+        <v>22681959</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45714.62917824074</v>
+        <v>45721.59844907407</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45714.63032407407</v>
+        <v>45722.04144675926</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>ZDH2YE</t>
+          <t>LA9571466MBTP</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Victor Moura Bezerra/Andre</t>
+          <t>Carvalho/Gabriel</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45714.11944444444</v>
+        <v>45721.09166666667</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Instituto Atlantico</t>
+          <t>Etecon</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2143,11 +2143,11 @@
       </c>
       <c r="X9" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>999359973</v>
+        <v>2222371964</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>554.17</v>
+        <v>521.2</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>56.02</v>
+        <v>51.92</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="n">
-        <v>62.81</v>
+        <v>8.91</v>
       </c>
       <c r="AI9" s="5" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 05/03/2025</t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2228,21 +2228,21 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>21722287</v>
+        <v>21766747</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>22646039</v>
+        <v>22686494</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45714.62917824074</v>
+        <v>45722.3859375</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45714.63032407407</v>
+        <v>45722.38673611111</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>ZDH2YE</t>
+          <t>KQJJUW</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Rulian Lima Jorge/Webster</t>
+          <t>DANIEL DA SILVA NUNES/IAGO</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45714.11944444444</v>
+        <v>45722.38402777778</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2299,12 +2299,12 @@
       </c>
       <c r="Q10" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R10" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S10" s="5" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Instituto Atlantico</t>
+          <t>Dolphin Solucoes Em Engenharia</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2334,11 +2334,11 @@
       </c>
       <c r="X10" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>780874312</v>
+        <v>2222472339</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>554.17</v>
+        <v>50.7</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>56.02</v>
+        <v>319.92</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI10" s="5" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2388,17 +2388,17 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO10" s="5" t="inlineStr">
@@ -2413,16 +2413,16 @@
       </c>
       <c r="AQ10" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>21722653</v>
+        <v>21767525</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>22646373</v>
+        <v>22687251</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
@@ -2430,10 +2430,10 @@
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45714.67627314815</v>
+        <v>45722.4984837963</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45714.68427083334</v>
+        <v>45722.50670138889</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>PL8RMW</t>
+          <t>LA9579961ZVMA</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Oliva/Daniela</t>
+          <t>Menezes/Marden</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45714.16805555556</v>
+        <v>45722.48194444444</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Inspirar - Centro de Estudos</t>
+          <t>Blueshift Brasil Ltda</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2525,11 +2525,11 @@
       </c>
       <c r="X11" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>945697025</v>
+        <v>2222493828</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>159.9</v>
+        <v>331.92</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>46.72</v>
+        <v>60.62</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>8</v>
+        <v>5.68</v>
       </c>
       <c r="AI11" s="5" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 06/03/2025</t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2604,16 +2604,16 @@
       </c>
       <c r="AQ11" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>21722693</v>
+        <v>21769232</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>22646414</v>
+        <v>22688998</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
@@ -2621,10 +2621,10 @@
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>45714.68181712963</v>
+        <v>45722.63732638889</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>45714.68643518518</v>
+        <v>45722.64134259259</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>UXGDJH</t>
+          <t>LA9570474ZDHC</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>Silva/Henrique</t>
+          <t>FERNANDEZ/GREYCE</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>45714.10833333333</v>
+        <v>45722.12152777778</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R12" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="U12" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Pailon Comunicacao Visual Ltda</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2716,11 +2716,11 @@
       </c>
       <c r="X12" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y12" s="5" t="n">
-        <v>2133054965</v>
+        <v>2222525706</v>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>1281.26</v>
+        <v>137.52</v>
       </c>
       <c r="AC12" s="5" t="n">
-        <v>47.02</v>
+        <v>48.16</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>0</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5" t="n">
-        <v>64.06</v>
+        <v>2.35</v>
       </c>
       <c r="AI12" s="5" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="AJ12" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 06/03/2025</t>
         </is>
       </c>
       <c r="AK12" s="5" t="inlineStr">
@@ -2770,17 +2770,17 @@
       </c>
       <c r="AL12" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM12" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN12" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO12" s="5" t="inlineStr">
@@ -2795,16 +2795,16 @@
       </c>
       <c r="AQ12" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>21722789</v>
+        <v>21767199</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>22646496</v>
+        <v>22686898</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>45714.69570601852</v>
+        <v>45722.4431712963</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>45714.69671296296</v>
+        <v>45722.45365740741</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>LA9577468BIYO</t>
+          <t>LA9578931XWFZ</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>Silva/Henrique</t>
+          <t>CASTRO/EDUARDO</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>45714.11388888889</v>
+        <v>45722.43611111111</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S13" s="5" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="U13" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Wd Vending Machine</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2911,7 +2911,7 @@
         </is>
       </c>
       <c r="Y13" s="5" t="n">
-        <v>2221526832</v>
+        <v>2222481450</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>1213</v>
+        <v>389.52</v>
       </c>
       <c r="AC13" s="5" t="n">
-        <v>60.62</v>
+        <v>30.95</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>0</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5" t="n">
-        <v>18.19</v>
+        <v>6.66</v>
       </c>
       <c r="AI13" s="5" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="AJ13" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 06/03/2025</t>
         </is>
       </c>
       <c r="AK13" s="5" t="inlineStr">
@@ -2961,17 +2961,17 @@
       </c>
       <c r="AL13" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Forma de Pagamento indevida</t>
         </is>
       </c>
       <c r="AM13" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Forma PG. e REC.</t>
         </is>
       </c>
       <c r="AN13" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO13" s="5" t="inlineStr">
@@ -2986,16 +2986,16 @@
       </c>
       <c r="AQ13" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>21722888</v>
+        <v>21770924</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>22646582</v>
+        <v>22690782</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45714.70685185185</v>
+        <v>45722.80400462963</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45714.70896990741</v>
+        <v>45722.80516203704</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>YDWEHR</t>
+          <t>FQEBVU</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>Aguiar Saraiva/Martina</t>
+          <t>MARCONDES/MURILO</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45714.19861111111</v>
+        <v>45722.30208333334</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
@@ -3063,12 +3063,12 @@
       </c>
       <c r="Q14" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R14" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S14" s="5" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>Instituto Atlantico</t>
+          <t>Manati Capital Management</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>359785193</v>
+        <v>2133484486</v>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>554.17</v>
+        <v>393.53</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>56.02</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>31.4</v>
+        <v>40</v>
       </c>
       <c r="AI14" s="5" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AJ14" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 26/02/2025</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK14" s="5" t="inlineStr">
@@ -3152,17 +3152,17 @@
       </c>
       <c r="AL14" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM14" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN14" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO14" s="5" t="inlineStr">
@@ -3177,16 +3177,16 @@
       </c>
       <c r="AQ14" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>21722984</v>
+        <v>21769835</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>22646671</v>
+        <v>22689621</v>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45714.71803240741</v>
+        <v>45722.69431712963</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45714.72113425926</v>
+        <v>45722.69931712963</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>wqouwq</t>
+          <t>stfnjj</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>BEZERRA DA SILVA/EDIVAL</t>
+          <t>Freitas/Felipe</t>
         </is>
       </c>
       <c r="K15" s="5" t="inlineStr">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45714.21736111111</v>
+        <v>45722.19375</v>
       </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
       </c>
       <c r="V15" s="5" t="inlineStr">
         <is>
-          <t>Brandares Imoveis</t>
+          <t>Group Link Network Ltda</t>
         </is>
       </c>
       <c r="W15" s="5" t="inlineStr">
@@ -3289,11 +3289,11 @@
       </c>
       <c r="X15" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y15" s="5" t="n">
-        <v>2133053764</v>
+        <v>2222514935</v>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>604.89</v>
+        <v>813.6799999999999</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>78.04000000000001</v>
+        <v>104.89</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>0</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI15" s="5" t="inlineStr">
         <is>
@@ -3374,10 +3374,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>21722984</v>
+        <v>21769835</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>22646672</v>
+        <v>22689622</v>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
@@ -3385,10 +3385,10 @@
         </is>
       </c>
       <c r="D16" s="6" t="n">
-        <v>45714.71803240741</v>
+        <v>45722.69431712963</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>45714.72113425926</v>
+        <v>45722.69931712963</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>wqouwq</t>
+          <t>stfnjj</t>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>SILVA/THAWANE</t>
+          <t>Antônio Frade/Marco</t>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="M16" s="6" t="n">
-        <v>45714.21736111111</v>
+        <v>45722.19375</v>
       </c>
       <c r="N16" s="5" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="V16" s="5" t="inlineStr">
         <is>
-          <t>Brandares Imoveis</t>
+          <t>Group Link Network Ltda</t>
         </is>
       </c>
       <c r="W16" s="5" t="inlineStr">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="X16" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y16" s="5" t="n">
-        <v>2133053776</v>
+        <v>2222514936</v>
       </c>
       <c r="Z16" s="5" t="inlineStr">
         <is>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>604.89</v>
+        <v>813.6900000000001</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>78.04000000000001</v>
+        <v>104.89</v>
       </c>
       <c r="AD16" s="5" t="n">
         <v>0</v>
@@ -3565,21 +3565,21 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>21723383</v>
+        <v>21769835</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22647049</v>
+        <v>22689623</v>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC03</t>
         </is>
       </c>
       <c r="D17" s="6" t="n">
-        <v>45714.74324074074</v>
+        <v>45722.69431712963</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>45714.74435185185</v>
+        <v>45722.69931712963</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>SJVYRW</t>
+          <t>stfnjj</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
@@ -3603,7 +3603,7 @@
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>BAHIA/DIOGO</t>
+          <t>Berlanga/Mayara</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="M17" s="6" t="n">
-        <v>45714.24236111111</v>
+        <v>45722.19375</v>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="V17" s="5" t="inlineStr">
         <is>
-          <t>Opportunity Gestora</t>
+          <t>Group Link Network Ltda</t>
         </is>
       </c>
       <c r="W17" s="5" t="inlineStr">
@@ -3671,11 +3671,11 @@
       </c>
       <c r="X17" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y17" s="5" t="n">
-        <v>2133060379</v>
+        <v>2222514937</v>
       </c>
       <c r="Z17" s="5" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
         </is>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>833.09</v>
+        <v>813.6900000000001</v>
       </c>
       <c r="AC17" s="5" t="n">
         <v>104.89</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="AH17" s="5" t="n">
-        <v>41.65</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="5" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="AJ17" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2133060379 já sendo utilizado para este fornecedor.</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK17" s="5" t="inlineStr">
@@ -3725,12 +3725,12 @@
       </c>
       <c r="AL17" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM17" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN17" s="5" t="inlineStr">
@@ -3751,6 +3751,1343 @@
       <c r="AQ17" s="5" t="inlineStr">
         <is>
           <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
+        <v>21762833</v>
+      </c>
+      <c r="B18" s="5" t="n">
+        <v>22682891</v>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>45721.66828703704</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>45721.67484953703</v>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>SQHQKZ</t>
+        </is>
+      </c>
+      <c r="I18" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>NILSON MARTORELLA</t>
+        </is>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>Layla Pereira de Oliveira</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>Layla Pereira de Oliveira</t>
+        </is>
+      </c>
+      <c r="M18" s="6" t="n">
+        <v>45715.66805555556</v>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P18" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q18" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S18" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T18" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U18" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V18" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip - Vendas Cartao de Credito</t>
+        </is>
+      </c>
+      <c r="W18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X18" s="5" t="inlineStr">
+        <is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y18" s="5" t="n">
+        <v>2133136948</v>
+      </c>
+      <c r="Z18" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB18" s="5" t="n">
+        <v>1034.21</v>
+      </c>
+      <c r="AC18" s="5" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="AD18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="5" t="n">
+        <v>51.71</v>
+      </c>
+      <c r="AI18" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+        </is>
+      </c>
+      <c r="AK18" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL18" s="5" t="inlineStr">
+        <is>
+          <t>Falha no processo de integração</t>
+        </is>
+      </c>
+      <c r="AM18" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN18" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO18" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP18" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ18" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>21762460</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>22682592</v>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>45721.63112268518</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>45721.64956018519</v>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>LA9579612PDWU</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>ANA PAULA HASKEL</t>
+        </is>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>Layla Pereira de Oliveira</t>
+        </is>
+      </c>
+      <c r="L19" s="5" t="inlineStr">
+        <is>
+          <t>Layla Pereira de Oliveira</t>
+        </is>
+      </c>
+      <c r="M19" s="6" t="n">
+        <v>45709.63055555556</v>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P19" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q19" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R19" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S19" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>Contabilidade Facilitada Educacional Ltda</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="n">
+        <v>2220868645</v>
+      </c>
+      <c r="Z19" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB19" s="5" t="n">
+        <v>1017.81</v>
+      </c>
+      <c r="AC19" s="5" t="n">
+        <v>50.92</v>
+      </c>
+      <c r="AD19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="5" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="AI19" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ19" s="5" t="inlineStr">
+        <is>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+        </is>
+      </c>
+      <c r="AK19" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL19" s="5" t="inlineStr">
+        <is>
+          <t>Falta de informação Gerencial</t>
+        </is>
+      </c>
+      <c r="AM19" s="5" t="inlineStr">
+        <is>
+          <t>Campo centro de custo</t>
+        </is>
+      </c>
+      <c r="AN19" s="5" t="inlineStr">
+        <is>
+          <t>Dados Gerenciais</t>
+        </is>
+      </c>
+      <c r="AO19" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP19" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ19" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="n">
+        <v>21751787</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>22672815</v>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>45719.49252314815</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>45719.50724537037</v>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>03 a 05 dias</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="inlineStr">
+        <is>
+          <t>OLU47D</t>
+        </is>
+      </c>
+      <c r="I20" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J20" s="5" t="inlineStr">
+        <is>
+          <t>DOUGLAS HENRIQUE MOREIRA ALVES</t>
+        </is>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L20" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M20" s="6" t="n">
+        <v>45715.49236111111</v>
+      </c>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P20" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q20" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R20" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S20" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T20" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U20" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V20" s="5" t="inlineStr">
+        <is>
+          <t>Invent Comercio E Servicos Empresariais Ltda.</t>
+        </is>
+      </c>
+      <c r="W20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X20" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y20" s="5" t="n">
+        <v>3022672814</v>
+      </c>
+      <c r="Z20" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB20" s="5" t="n">
+        <v>1466.89</v>
+      </c>
+      <c r="AC20" s="5" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="AD20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="5" t="n">
+        <v>73.34</v>
+      </c>
+      <c r="AI20" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ20" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+        </is>
+      </c>
+      <c r="AK20" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL20" s="5" t="inlineStr">
+        <is>
+          <t>Falha no processo de integração</t>
+        </is>
+      </c>
+      <c r="AM20" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN20" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO20" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP20" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ20" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="n">
+        <v>21770662</v>
+      </c>
+      <c r="B21" s="5" t="n">
+        <v>22690533</v>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>45722.77173611111</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>45722.77847222222</v>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>XLIT6G</t>
+        </is>
+      </c>
+      <c r="I21" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J21" s="5" t="inlineStr">
+        <is>
+          <t>ANTONIO MARCOS BEZERRA</t>
+        </is>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L21" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M21" s="6" t="n">
+        <v>45719.77152777778</v>
+      </c>
+      <c r="N21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P21" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q21" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R21" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S21" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T21" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U21" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V21" s="5" t="inlineStr">
+        <is>
+          <t>Supermercado da Familia</t>
+        </is>
+      </c>
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X21" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y21" s="5" t="n">
+        <v>3022690532</v>
+      </c>
+      <c r="Z21" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB21" s="5" t="n">
+        <v>750</v>
+      </c>
+      <c r="AC21" s="5" t="n">
+        <v>31.44</v>
+      </c>
+      <c r="AD21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="5" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="AI21" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ21" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+        </is>
+      </c>
+      <c r="AK21" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL21" s="5" t="inlineStr">
+        <is>
+          <t>Falha no processo de integração</t>
+        </is>
+      </c>
+      <c r="AM21" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN21" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO21" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP21" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ21" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="n">
+        <v>21770625</v>
+      </c>
+      <c r="B22" s="5" t="n">
+        <v>22690503</v>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>45722.76629629629</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>45722.7712962963</v>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H22" s="5" t="inlineStr">
+        <is>
+          <t>EQUL7B</t>
+        </is>
+      </c>
+      <c r="I22" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J22" s="5" t="inlineStr">
+        <is>
+          <t>ROBERTO NASCIMENTO OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L22" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M22" s="6" t="n">
+        <v>45719.76597222222</v>
+      </c>
+      <c r="N22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P22" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q22" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R22" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S22" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T22" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U22" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V22" s="5" t="inlineStr">
+        <is>
+          <t>Vpr Consultoria, Eventos, Servicos e Treinamentos Ltda</t>
+        </is>
+      </c>
+      <c r="W22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X22" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y22" s="5" t="n">
+        <v>3022690502</v>
+      </c>
+      <c r="Z22" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB22" s="5" t="n">
+        <v>144.85</v>
+      </c>
+      <c r="AC22" s="5" t="n">
+        <v>44.27</v>
+      </c>
+      <c r="AD22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="5" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="AI22" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ22" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+        </is>
+      </c>
+      <c r="AK22" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL22" s="5" t="inlineStr">
+        <is>
+          <t>Falha no processo de integração</t>
+        </is>
+      </c>
+      <c r="AM22" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN22" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO22" s="5" t="inlineStr">
+        <is>
+          <t>Sistêmico</t>
+        </is>
+      </c>
+      <c r="AP22" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ22" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>21767443</v>
+      </c>
+      <c r="B23" s="5" t="n">
+        <v>22689192</v>
+      </c>
+      <c r="C23" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="n">
+        <v>45722.47490740741</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>45722.65681712963</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H23" s="5" t="inlineStr">
+        <is>
+          <t>GSVOYM</t>
+        </is>
+      </c>
+      <c r="I23" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J23" s="5" t="inlineStr">
+        <is>
+          <t>VALTON PESSOA</t>
+        </is>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L23" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M23" s="6" t="n">
+        <v>45716.47430555556</v>
+      </c>
+      <c r="N23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P23" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q23" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R23" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S23" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T23" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U23" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Dalazen &amp; Pessoa Sociedade de Advogados</t>
+        </is>
+      </c>
+      <c r="V23" s="5" t="inlineStr">
+        <is>
+          <t>Dalazen &amp; Pessoa Sociedade de Advogados</t>
+        </is>
+      </c>
+      <c r="W23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X23" s="5" t="inlineStr">
+        <is>
+          <t>Latam Airlines Brasil</t>
+        </is>
+      </c>
+      <c r="Y23" s="5" t="n">
+        <v>2872417069</v>
+      </c>
+      <c r="Z23" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB23" s="5" t="n">
+        <v>1595.44</v>
+      </c>
+      <c r="AC23" s="5" t="n">
+        <v>654.11</v>
+      </c>
+      <c r="AD23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ23" s="5" t="inlineStr">
+        <is>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+        </is>
+      </c>
+      <c r="AK23" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL23" s="5" t="inlineStr">
+        <is>
+          <t>Falta de informação Gerencial</t>
+        </is>
+      </c>
+      <c r="AM23" s="5" t="inlineStr">
+        <is>
+          <t>Campo centro de custo</t>
+        </is>
+      </c>
+      <c r="AN23" s="5" t="inlineStr">
+        <is>
+          <t>Dados Gerenciais</t>
+        </is>
+      </c>
+      <c r="AO23" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP23" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ23" s="5" t="inlineStr">
+        <is>
+          <t>Central de Emissão</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>21761614</v>
+      </c>
+      <c r="B24" s="5" t="n">
+        <v>22681572</v>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D24" s="6" t="n">
+        <v>45721.56907407408</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>45721.57837962963</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="inlineStr">
+        <is>
+          <t>GZAOZZ</t>
+        </is>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>RAFAELA TRINDADE MAR</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L24" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M24" s="6" t="n">
+        <v>45716.56875</v>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P24" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q24" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R24" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S24" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T24" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U24" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Stark Bank</t>
+        </is>
+      </c>
+      <c r="V24" s="5" t="inlineStr">
+        <is>
+          <t>Stark Bank S.a.</t>
+        </is>
+      </c>
+      <c r="W24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X24" s="5" t="inlineStr">
+        <is>
+          <t>American Airlines</t>
+        </is>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>2872417070</v>
+      </c>
+      <c r="Z24" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>3307.35</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>325.86</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ24" s="5" t="inlineStr">
+        <is>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+        </is>
+      </c>
+      <c r="AK24" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL24" s="5" t="inlineStr">
+        <is>
+          <t>Falta de informação Gerencial</t>
+        </is>
+      </c>
+      <c r="AM24" s="5" t="inlineStr">
+        <is>
+          <t>Campo centro de custo</t>
+        </is>
+      </c>
+      <c r="AN24" s="5" t="inlineStr">
+        <is>
+          <t>Dados Gerenciais</t>
+        </is>
+      </c>
+      <c r="AO24" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP24" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ24" s="5" t="inlineStr">
+        <is>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AQ21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,10 +700,10 @@
     </row>
     <row r="2">
       <c r="A2" s="5" t="n">
-        <v>21768114</v>
+        <v>21934387</v>
       </c>
       <c r="B2" s="5" t="n">
-        <v>22687884</v>
+        <v>22832964</v>
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
@@ -711,24 +711,24 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45722.57069444445</v>
+        <v>45751.84989583334</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45722.58175925926</v>
+        <v>45751.85074074074</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>LA9577716BKEK</t>
+          <t>OGUCVL</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>Antunes/Carlos</t>
+          <t>Costa/Clara</t>
         </is>
       </c>
       <c r="K2" s="5" t="inlineStr">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="M2" s="6" t="n">
-        <v>45722.50208333333</v>
+        <v>45751.34722222222</v>
       </c>
       <c r="N2" s="5" t="inlineStr">
         <is>
@@ -791,12 +791,12 @@
       </c>
       <c r="U2" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V2" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Pessoa e Pessoa Advogados Associados</t>
         </is>
       </c>
       <c r="W2" s="5" t="inlineStr">
@@ -806,11 +806,11 @@
       </c>
       <c r="X2" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y2" s="5" t="n">
-        <v>2222509202</v>
+        <v>2135464586</v>
       </c>
       <c r="Z2" s="5" t="inlineStr">
         <is>
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="AB2" s="5" t="n">
-        <v>418.51</v>
+        <v>349.91</v>
       </c>
       <c r="AC2" s="5" t="n">
-        <v>60.62</v>
+        <v>44.27</v>
       </c>
       <c r="AD2" s="5" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="5" t="n">
-        <v>12.56</v>
+        <v>20.99</v>
       </c>
       <c r="AI2" s="5" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
       </c>
       <c r="AJ2" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2222509202 já sendo utilizado para este fornecedor.</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK2" s="5" t="inlineStr">
@@ -860,17 +860,17 @@
       </c>
       <c r="AL2" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM2" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN2" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO2" s="5" t="inlineStr">
@@ -885,41 +885,41 @@
       </c>
       <c r="AQ2" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>21768114</v>
+        <v>21934392</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>22687885</v>
+        <v>22832966</v>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45722.57069444445</v>
+        <v>45751.85002314814</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45722.58175925926</v>
+        <v>45751.850625</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>LA9577716BKEK</t>
+          <t>JUJBMU</t>
         </is>
       </c>
       <c r="I3" s="5" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="J3" s="5" t="inlineStr">
         <is>
-          <t>Carmo/Renata</t>
+          <t>Galvão/Rafaela</t>
         </is>
       </c>
       <c r="K3" s="5" t="inlineStr">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="M3" s="6" t="n">
-        <v>45722.50208333333</v>
+        <v>45751.34583333333</v>
       </c>
       <c r="N3" s="5" t="inlineStr">
         <is>
@@ -982,12 +982,12 @@
       </c>
       <c r="U3" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V3" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Pessoa e Pessoa Advogados Associados</t>
         </is>
       </c>
       <c r="W3" s="5" t="inlineStr">
@@ -997,11 +997,11 @@
       </c>
       <c r="X3" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y3" s="5" t="n">
-        <v>2222509202</v>
+        <v>2135464852</v>
       </c>
       <c r="Z3" s="5" t="inlineStr">
         <is>
@@ -1014,10 +1014,10 @@
         </is>
       </c>
       <c r="AB3" s="5" t="n">
-        <v>418.52</v>
+        <v>699.8200000000001</v>
       </c>
       <c r="AC3" s="5" t="n">
-        <v>60.62</v>
+        <v>104.89</v>
       </c>
       <c r="AD3" s="5" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="AH3" s="5" t="n">
-        <v>0</v>
+        <v>83.98</v>
       </c>
       <c r="AI3" s="5" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="AJ3" s="5" t="inlineStr">
         <is>
-          <t>Verificação de bilhetes: Bilhete 2222509202 já sendo utilizado para este fornecedor.</t>
+          <t>Centro de custo não preenchido! (ACC02)</t>
         </is>
       </c>
       <c r="AK3" s="5" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="AL3" s="5" t="inlineStr">
         <is>
-          <t>Bilhete duplicado</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM3" s="5" t="inlineStr">
         <is>
-          <t>Bilhete Já Contabilizado</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN3" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO3" s="5" t="inlineStr">
@@ -1076,41 +1076,41 @@
       </c>
       <c r="AQ3" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>21745148</v>
+        <v>21934392</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>22667272</v>
+        <v>22832967</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45717.79009259259</v>
+        <v>45751.85002314814</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45717.79211805556</v>
+        <v>45751.850625</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
-          <t>06 a 08 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>06 a 08 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>LA9579331OAHU</t>
+          <t>JUJBMU</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>Di Bernardo do Carmo/Renata</t>
+          <t>Galvão/Luca</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45717.04166666666</v>
+        <v>45751.34583333333</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1173,12 +1173,12 @@
       </c>
       <c r="U4" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Pessoa e Pessoa Advogados Associados</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2221972532</v>
+        <v>2135464853</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>1338.72</v>
+        <v>699.8200000000001</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>60.62</v>
+        <v>104.89</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>20.08</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Centro de custo não preenchido! (ACC02)</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1273,10 +1273,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>21745181</v>
+        <v>21933743</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>22667297</v>
+        <v>22832366</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -1284,24 +1284,24 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45717.79981481482</v>
+        <v>45751.78481481481</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45717.80064814815</v>
+        <v>45751.78574074074</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>06 a 08 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>06 a 08 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>GOWABD</t>
+          <t>KXNGCR</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>Di Bernardo do Carmo/Renata</t>
+          <t>DA SILVA COELHO NETO/JOSE</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45717.04444444444</v>
+        <v>45751.28263888889</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1364,12 +1364,12 @@
       </c>
       <c r="U5" s="5" t="inlineStr">
         <is>
-          <t>Independente</t>
+          <t>Grupo Kontrip</t>
         </is>
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Tap Air Portugal</t>
+          <t>Solutis Tecnologias Ltda</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2133247233</v>
+        <v>2135457975</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>953.13</v>
+        <v>1210.48</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>47.02</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>47.66</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
@@ -1464,10 +1464,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>21756752</v>
+        <v>21944017</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>22677092</v>
+        <v>22839986</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45720.57206018519</v>
+        <v>45754.63074074074</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45722.79</v>
+        <v>45754.631875</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>LA9579495MBUW</t>
+          <t>CATLWC</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>Francisco Dias/Helcio</t>
+          <t>Moreira de Oliveira/Claudio</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45720.06875</v>
+        <v>45754.12847222222</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1535,12 +1535,12 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Aceflex do Nordeste Contentores Flexiveis Ltda</t>
+          <t>Bomconsorcio</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2222235991</v>
+        <v>2227176939</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>593.52</v>
+        <v>962.67</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>34.59</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>10.15</v>
+        <v>40</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 04/03/2025</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1649,16 +1649,16 @@
       </c>
       <c r="AQ6" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>21737825</v>
+        <v>21919420</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>22660743</v>
+        <v>22819287</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -1666,24 +1666,24 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45716.60270833333</v>
+        <v>45749.69053240741</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45716.6050462963</v>
+        <v>45754.31484953704</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
           <t>06 a 08 dias</t>
         </is>
       </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>06 a 08 dias</t>
-        </is>
-      </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>LA9579849ISFU</t>
+          <t>UZLSFY</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Aguiar Alvim/Marcelo</t>
+          <t>Caldas Chamusca/Beatriz</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45716.09722222222</v>
+        <v>45749.18978009259</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Quality Automacao Ltda</t>
+          <t>Solutis Tecnologias Ltda</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>2221819918</v>
+        <v>2226543131</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>575.12</v>
+        <v>2035.4</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>47.91</v>
+        <v>76.37</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>9.83</v>
+        <v>30.53</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 28/02/2025</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Campo Centro de custo passageiro</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1840,16 +1840,16 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>21760856</v>
+        <v>21917987</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>22680723</v>
+        <v>22817936</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
@@ -1857,34 +1857,34 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45721.48592592592</v>
+        <v>45749.50039351852</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45721.73508101852</v>
+        <v>45749.50848379629</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>EYXSAS</t>
+          <t>LPR98U01</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>PEREIRA LIMA/CRISTIANE</t>
+          <t>OLIVA/VICTOR</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45721.48472222222</v>
+        <v>45749.24444444444</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Lmaismaocubo Projetos e Consultoria Ltda</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1952,11 +1952,11 @@
       </c>
       <c r="X8" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>2219616515</v>
+        <v>3022817999</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>1118.35</v>
+        <v>651.89</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>83.09999999999999</v>
+        <v>28.73</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1987,11 +1987,11 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>0</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>obs Lançamento 01 para lançamento regularização da RAV</t>
         </is>
       </c>
       <c r="AJ8" s="5" t="inlineStr">
@@ -2037,10 +2037,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>21761986</v>
+        <v>21917512</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>22681959</v>
+        <v>22817450</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
@@ -2048,24 +2048,24 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45721.59844907407</v>
+        <v>45749.44476851852</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45722.04144675926</v>
+        <v>45751.75458333334</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G9" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>LA9571466MBTP</t>
+          <t>QTHDXS</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Carvalho/Gabriel</t>
+          <t>CAMPOS GUARIM/PRISCILLA</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45721.09166666667</v>
+        <v>45749.44236111111</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="R9" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Faturado</t>
         </is>
       </c>
       <c r="S9" s="5" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Etecon</t>
+          <t>Memora</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2143,11 +2143,11 @@
       </c>
       <c r="X9" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>2222371964</v>
+        <v>2135277748</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>521.2</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="5" t="n">
-        <v>51.92</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="5" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="5" t="n">
-        <v>8.91</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="5" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
       </c>
       <c r="AJ9" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 05/03/2025</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK9" s="5" t="inlineStr">
@@ -2197,17 +2197,17 @@
       </c>
       <c r="AL9" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM9" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN9" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO9" s="5" t="inlineStr">
@@ -2222,16 +2222,16 @@
       </c>
       <c r="AQ9" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>21766747</v>
+        <v>21882829</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>22686494</v>
+        <v>22788895</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
@@ -2239,24 +2239,24 @@
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45722.3859375</v>
+        <v>45742.82640046296</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45722.38673611111</v>
+        <v>45747.52189814814</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G10" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>KQJJUW</t>
+          <t>ELRQAI02</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>DANIEL DA SILVA NUNES/IAGO</t>
+          <t>GARRIDO FERNANDES/NATANIEL</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45722.38402777778</v>
+        <v>45742.32569444444</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Dolphin Solucoes Em Engenharia</t>
+          <t>Franciscon</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>2222472339</v>
+        <v>2225378465</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>50.7</v>
+        <v>3072.49</v>
       </c>
       <c r="AC10" s="5" t="n">
-        <v>319.92</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="5" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AH10" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="5" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="AJ10" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Verificação de bilhetes: Bilhete 2225378465 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK10" s="5" t="inlineStr">
@@ -2388,12 +2388,12 @@
       </c>
       <c r="AL10" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM10" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN10" s="5" t="inlineStr">
@@ -2419,10 +2419,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>21767525</v>
+        <v>21882886</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>22687251</v>
+        <v>22788941</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
@@ -2430,24 +2430,24 @@
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45722.4984837963</v>
+        <v>45742.83744212963</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45722.50670138889</v>
+        <v>45747.52128472222</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G11" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>LA9579961ZVMA</t>
+          <t>ELRQAI01</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Menezes/Marden</t>
+          <t>GARRIDO FERNANDES/NATANIEL</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45722.48194444444</v>
+        <v>45742.33611111111</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2490,12 +2490,12 @@
       </c>
       <c r="Q11" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R11" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S11" s="5" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Blueshift Brasil Ltda</t>
+          <t>Franciscon</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>2222493828</v>
+        <v>2225378465</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2542,10 +2542,10 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>331.92</v>
+        <v>3072.49</v>
       </c>
       <c r="AC11" s="5" t="n">
-        <v>60.62</v>
+        <v>393.52</v>
       </c>
       <c r="AD11" s="5" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="5" t="n">
-        <v>5.68</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="5" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="AJ11" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 06/03/2025</t>
+          <t>Verificação de bilhetes: Bilhete 2225378465 já sendo utilizado para este fornecedor.</t>
         </is>
       </c>
       <c r="AK11" s="5" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="AL11" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Bilhete duplicado</t>
         </is>
       </c>
       <c r="AM11" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Bilhete Já Contabilizado</t>
         </is>
       </c>
       <c r="AN11" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO11" s="5" t="inlineStr">
@@ -2604,27 +2604,27 @@
       </c>
       <c r="AQ11" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>21769232</v>
+        <v>21945102</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>22688998</v>
+        <v>22841153</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>45722.63732638889</v>
+        <v>45754.77824074074</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>45722.64134259259</v>
+        <v>45754.7850462963</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -2638,31 +2638,31 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>LA9570474ZDHC</t>
+          <t>JRMVGB</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>FERNANDEZ/GREYCE</t>
+          <t>GRACIELLY CRISTINA FERNANDES</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L12" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>45722.12152777778</v>
+        <v>45750.77777777778</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
@@ -2681,12 +2681,12 @@
       </c>
       <c r="Q12" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R12" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S12" s="5" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>Pailon Comunicacao Visual Ltda</t>
+          <t>Perimetral Montagem Ltda</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2716,11 +2716,11 @@
       </c>
       <c r="X12" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y12" s="5" t="n">
-        <v>2222525706</v>
+        <v>3022841152</v>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>137.52</v>
+        <v>1873.9</v>
       </c>
       <c r="AC12" s="5" t="n">
-        <v>48.16</v>
+        <v>31.69</v>
       </c>
       <c r="AD12" s="5" t="n">
         <v>0</v>
@@ -2751,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="AH12" s="5" t="n">
-        <v>2.35</v>
+        <v>206.13</v>
       </c>
       <c r="AI12" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ12" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 06/03/2025</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK12" s="5" t="inlineStr">
@@ -2770,22 +2770,22 @@
       </c>
       <c r="AL12" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Falha no processo de integração</t>
         </is>
       </c>
       <c r="AM12" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN12" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO12" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP12" s="5" t="inlineStr">
@@ -2795,27 +2795,27 @@
       </c>
       <c r="AQ12" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>21767199</v>
+        <v>21945023</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>22686898</v>
+        <v>22841009</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>45722.4431712963</v>
+        <v>45754.76681712963</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>45722.45365740741</v>
+        <v>45754.77292824074</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -2829,31 +2829,31 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>LA9578931XWFZ</t>
+          <t>VW1H3N</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>CASTRO/EDUARDO</t>
+          <t>MARCELA MORAES MAIA</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L13" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>45722.43611111111</v>
+        <v>45749.76666666667</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="Q13" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R13" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S13" s="5" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Wd Vending Machine</t>
+          <t>Marques e Bezerra Ltda</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2907,11 +2907,11 @@
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y13" s="5" t="n">
-        <v>2222481450</v>
+        <v>3022841008</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
@@ -2924,10 +2924,10 @@
         </is>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>389.52</v>
+        <v>1128.03</v>
       </c>
       <c r="AC13" s="5" t="n">
-        <v>30.95</v>
+        <v>47.91</v>
       </c>
       <c r="AD13" s="5" t="n">
         <v>0</v>
@@ -2942,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="AH13" s="5" t="n">
-        <v>6.66</v>
+        <v>124.08</v>
       </c>
       <c r="AI13" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ13" s="5" t="inlineStr">
         <is>
-          <t>Não foi possível encontrar configuração válida para Administradora de código 1 e Data transação 06/03/2025</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK13" s="5" t="inlineStr">
@@ -2961,22 +2961,22 @@
       </c>
       <c r="AL13" s="5" t="inlineStr">
         <is>
-          <t>Forma de Pagamento indevida</t>
+          <t>Falha no processo de integração</t>
         </is>
       </c>
       <c r="AM13" s="5" t="inlineStr">
         <is>
-          <t>Forma PG. e REC.</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN13" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO13" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP13" s="5" t="inlineStr">
@@ -2986,27 +2986,27 @@
       </c>
       <c r="AQ13" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>21770924</v>
+        <v>21944963</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>22690782</v>
+        <v>22840957</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45722.80400462963</v>
+        <v>45754.75655092593</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45722.80516203704</v>
+        <v>45754.76534722222</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
@@ -3020,31 +3020,31 @@
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>FQEBVU</t>
+          <t>LFIIWL</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>MARCONDES/MURILO</t>
+          <t>CLAUDIA VIEIRA</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L14" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45722.30208333334</v>
+        <v>45749.75625</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>Manati Capital Management</t>
+          <t>Oxmed</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>2133484486</v>
+        <v>3022840956</v>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
@@ -3115,10 +3115,10 @@
         </is>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>393.53</v>
+        <v>446.9</v>
       </c>
       <c r="AC14" s="5" t="n">
-        <v>0</v>
+        <v>54.45</v>
       </c>
       <c r="AD14" s="5" t="n">
         <v>0</v>
@@ -3133,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="AH14" s="5" t="n">
-        <v>40</v>
+        <v>49.16</v>
       </c>
       <c r="AI14" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ14" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK14" s="5" t="inlineStr">
@@ -3152,22 +3152,22 @@
       </c>
       <c r="AL14" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falha no processo de integração</t>
         </is>
       </c>
       <c r="AM14" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN14" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO14" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP14" s="5" t="inlineStr">
@@ -3177,27 +3177,27 @@
       </c>
       <c r="AQ14" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>21769835</v>
+        <v>21943370</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>22689621</v>
+        <v>22839451</v>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45722.69431712963</v>
+        <v>45754.55298611111</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45722.69931712963</v>
+        <v>45754.55956018518</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
@@ -3211,31 +3211,31 @@
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>stfnjj</t>
+          <t>LA9575765GSJS</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>Freitas/Felipe</t>
+          <t>GILVAN SOUZA JUNIOR</t>
         </is>
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L15" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45722.19375</v>
+        <v>45751.55277777778</v>
       </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="Q15" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="V15" s="5" t="inlineStr">
         <is>
-          <t>Group Link Network Ltda</t>
+          <t>Inteligencia de Negocios Sistemas e Informatica Ltda</t>
         </is>
       </c>
       <c r="W15" s="5" t="inlineStr">
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="Y15" s="5" t="n">
-        <v>2222514935</v>
+        <v>2226862477</v>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>813.6799999999999</v>
+        <v>718.8099999999999</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>104.89</v>
+        <v>50.92</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>0</v>
@@ -3324,16 +3324,16 @@
         <v>0</v>
       </c>
       <c r="AH15" s="5" t="n">
-        <v>40</v>
+        <v>12.29</v>
       </c>
       <c r="AI15" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ15" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
         </is>
       </c>
       <c r="AK15" s="5" t="inlineStr">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="AL15" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM15" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Campo centro de custo</t>
         </is>
       </c>
       <c r="AN15" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO15" s="5" t="inlineStr">
@@ -3368,27 +3368,27 @@
       </c>
       <c r="AQ15" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>21769835</v>
+        <v>21942343</v>
       </c>
       <c r="B16" s="5" t="n">
-        <v>22689622</v>
+        <v>22838476</v>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D16" s="6" t="n">
-        <v>45722.69431712963</v>
+        <v>45754.45228009259</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>45722.69931712963</v>
+        <v>45754.47015046296</v>
       </c>
       <c r="F16" s="5" t="inlineStr">
         <is>
@@ -3402,31 +3402,31 @@
       </c>
       <c r="H16" s="5" t="inlineStr">
         <is>
-          <t>stfnjj</t>
+          <t>MHFM9C</t>
         </is>
       </c>
       <c r="I16" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J16" s="5" t="inlineStr">
         <is>
-          <t>Antônio Frade/Marco</t>
+          <t>JOAO PAULO MORAIS DA SILVA</t>
         </is>
       </c>
       <c r="K16" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L16" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M16" s="6" t="n">
-        <v>45722.19375</v>
+        <v>45749.45208333333</v>
       </c>
       <c r="N16" s="5" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="V16" s="5" t="inlineStr">
         <is>
-          <t>Group Link Network Ltda</t>
+          <t>Nossa Engenharia e Servicos</t>
         </is>
       </c>
       <c r="W16" s="5" t="inlineStr">
@@ -3480,11 +3480,11 @@
       </c>
       <c r="X16" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y16" s="5" t="n">
-        <v>2222514936</v>
+        <v>3022838475</v>
       </c>
       <c r="Z16" s="5" t="inlineStr">
         <is>
@@ -3497,10 +3497,10 @@
         </is>
       </c>
       <c r="AB16" s="5" t="n">
-        <v>813.6900000000001</v>
+        <v>441.52</v>
       </c>
       <c r="AC16" s="5" t="n">
-        <v>104.89</v>
+        <v>56.02</v>
       </c>
       <c r="AD16" s="5" t="n">
         <v>0</v>
@@ -3515,16 +3515,16 @@
         <v>0</v>
       </c>
       <c r="AH16" s="5" t="n">
-        <v>0</v>
+        <v>97.13</v>
       </c>
       <c r="AI16" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ16" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK16" s="5" t="inlineStr">
@@ -3534,22 +3534,22 @@
       </c>
       <c r="AL16" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falha no processo de integração</t>
         </is>
       </c>
       <c r="AM16" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN16" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO16" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP16" s="5" t="inlineStr">
@@ -3559,27 +3559,27 @@
       </c>
       <c r="AQ16" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>21769835</v>
+        <v>21942343</v>
       </c>
       <c r="B17" s="5" t="n">
-        <v>22689623</v>
+        <v>22838481</v>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>ACC03</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D17" s="6" t="n">
-        <v>45722.69431712963</v>
+        <v>45754.45228009259</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>45722.69931712963</v>
+        <v>45754.47015046296</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
@@ -3593,31 +3593,31 @@
       </c>
       <c r="H17" s="5" t="inlineStr">
         <is>
-          <t>stfnjj</t>
+          <t>MHFM9C</t>
         </is>
       </c>
       <c r="I17" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>Berlanga/Mayara</t>
+          <t>JOSE MISSIAS DE ARAUJO</t>
         </is>
       </c>
       <c r="K17" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M17" s="6" t="n">
-        <v>45722.19375</v>
+        <v>45749.45208333333</v>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="V17" s="5" t="inlineStr">
         <is>
-          <t>Group Link Network Ltda</t>
+          <t>Nossa Engenharia e Servicos</t>
         </is>
       </c>
       <c r="W17" s="5" t="inlineStr">
@@ -3671,11 +3671,11 @@
       </c>
       <c r="X17" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y17" s="5" t="n">
-        <v>2222514937</v>
+        <v>3022838487</v>
       </c>
       <c r="Z17" s="5" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="AB17" s="5" t="n">
-        <v>813.6900000000001</v>
+        <v>441.52</v>
       </c>
       <c r="AC17" s="5" t="n">
-        <v>104.89</v>
+        <v>56.02</v>
       </c>
       <c r="AD17" s="5" t="n">
         <v>0</v>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="AI17" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ17" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK17" s="5" t="inlineStr">
@@ -3725,22 +3725,22 @@
       </c>
       <c r="AL17" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falha no processo de integração</t>
         </is>
       </c>
       <c r="AM17" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN17" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO17" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP17" s="5" t="inlineStr">
@@ -3750,16 +3750,16 @@
       </c>
       <c r="AQ17" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>21762833</v>
+        <v>21943300</v>
       </c>
       <c r="B18" s="5" t="n">
-        <v>22682891</v>
+        <v>22839358</v>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
@@ -3767,10 +3767,10 @@
         </is>
       </c>
       <c r="D18" s="6" t="n">
-        <v>45721.66828703704</v>
+        <v>45754.54738425926</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>45721.67484953703</v>
+        <v>45754.5528125</v>
       </c>
       <c r="F18" s="5" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
       </c>
       <c r="H18" s="5" t="inlineStr">
         <is>
-          <t>SQHQKZ</t>
+          <t>PS1KQR</t>
         </is>
       </c>
       <c r="I18" s="5" t="inlineStr">
@@ -3794,21 +3794,21 @@
       </c>
       <c r="J18" s="5" t="inlineStr">
         <is>
-          <t>NILSON MARTORELLA</t>
+          <t>GILVAN SOUZA JUNIOR</t>
         </is>
       </c>
       <c r="K18" s="5" t="inlineStr">
         <is>
-          <t>Layla Pereira de Oliveira</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L18" s="5" t="inlineStr">
         <is>
-          <t>Layla Pereira de Oliveira</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M18" s="6" t="n">
-        <v>45715.66805555556</v>
+        <v>45751.54722222222</v>
       </c>
       <c r="N18" s="5" t="inlineStr">
         <is>
@@ -3827,12 +3827,12 @@
       </c>
       <c r="Q18" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R18" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S18" s="5" t="inlineStr">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="V18" s="5" t="inlineStr">
         <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
+          <t>Inteligencia de Negocios Sistemas e Informatica Ltda</t>
         </is>
       </c>
       <c r="W18" s="5" t="inlineStr">
@@ -3862,11 +3862,11 @@
       </c>
       <c r="X18" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y18" s="5" t="n">
-        <v>2133136948</v>
+        <v>3022839357</v>
       </c>
       <c r="Z18" s="5" t="inlineStr">
         <is>
@@ -3879,10 +3879,10 @@
         </is>
       </c>
       <c r="AB18" s="5" t="n">
-        <v>1034.21</v>
+        <v>595.85</v>
       </c>
       <c r="AC18" s="5" t="n">
-        <v>30.95</v>
+        <v>58.89</v>
       </c>
       <c r="AD18" s="5" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="AH18" s="5" t="n">
-        <v>51.71</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="AI18" s="5" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="AJ18" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
         </is>
       </c>
       <c r="AK18" s="5" t="inlineStr">
@@ -3916,22 +3916,22 @@
       </c>
       <c r="AL18" s="5" t="inlineStr">
         <is>
-          <t>Falha no processo de integração</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM18" s="5" t="inlineStr">
         <is>
-          <t>Análise Benner</t>
+          <t>Campo centro de custo</t>
         </is>
       </c>
       <c r="AN18" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO18" s="5" t="inlineStr">
         <is>
-          <t>Sistêmico</t>
+          <t>Qualidade dos dados</t>
         </is>
       </c>
       <c r="AP18" s="5" t="inlineStr">
@@ -3947,10 +3947,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>21762460</v>
+        <v>21933226</v>
       </c>
       <c r="B19" s="5" t="n">
-        <v>22682592</v>
+        <v>22832052</v>
       </c>
       <c r="C19" s="5" t="inlineStr">
         <is>
@@ -3958,24 +3958,24 @@
         </is>
       </c>
       <c r="D19" s="6" t="n">
-        <v>45721.63112268518</v>
+        <v>45751.75391203703</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45721.64956018519</v>
+        <v>45751.76748842592</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G19" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H19" s="5" t="inlineStr">
         <is>
-          <t>LA9579612PDWU</t>
+          <t>QAWZWU</t>
         </is>
       </c>
       <c r="I19" s="5" t="inlineStr">
@@ -3985,21 +3985,21 @@
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
-          <t>ANA PAULA HASKEL</t>
+          <t>CARLA FAGUNDES</t>
         </is>
       </c>
       <c r="K19" s="5" t="inlineStr">
         <is>
-          <t>Layla Pereira de Oliveira</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L19" s="5" t="inlineStr">
         <is>
-          <t>Layla Pereira de Oliveira</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M19" s="6" t="n">
-        <v>45709.63055555556</v>
+        <v>45749.75347222222</v>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
@@ -4018,12 +4018,12 @@
       </c>
       <c r="Q19" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R19" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S19" s="5" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="V19" s="5" t="inlineStr">
         <is>
-          <t>Contabilidade Facilitada Educacional Ltda</t>
+          <t>Instituto Atlantico</t>
         </is>
       </c>
       <c r="W19" s="5" t="inlineStr">
@@ -4053,11 +4053,11 @@
       </c>
       <c r="X19" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y19" s="5" t="n">
-        <v>2220868645</v>
+        <v>2135319543</v>
       </c>
       <c r="Z19" s="5" t="inlineStr">
         <is>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="AB19" s="5" t="n">
-        <v>1017.81</v>
+        <v>762.03</v>
       </c>
       <c r="AC19" s="5" t="n">
-        <v>50.92</v>
+        <v>53.57</v>
       </c>
       <c r="AD19" s="5" t="n">
         <v>0</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="5" t="n">
-        <v>50.89</v>
+        <v>45.72</v>
       </c>
       <c r="AI19" s="5" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="AJ19" s="5" t="inlineStr">
         <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
         </is>
       </c>
       <c r="AK19" s="5" t="inlineStr">
@@ -4107,22 +4107,22 @@
       </c>
       <c r="AL19" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Falha no processo de integração</t>
         </is>
       </c>
       <c r="AM19" s="5" t="inlineStr">
         <is>
-          <t>Campo centro de custo</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN19" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO19" s="5" t="inlineStr">
         <is>
-          <t>Qualidade dos dados</t>
+          <t>Sistêmico</t>
         </is>
       </c>
       <c r="AP19" s="5" t="inlineStr">
@@ -4138,10 +4138,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>21751787</v>
+        <v>21942211</v>
       </c>
       <c r="B20" s="5" t="n">
-        <v>22672815</v>
+        <v>22838326</v>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
@@ -4149,24 +4149,24 @@
         </is>
       </c>
       <c r="D20" s="6" t="n">
-        <v>45719.49252314815</v>
+        <v>45754.42853009259</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>45719.50724537037</v>
+        <v>45754.43857638889</v>
       </c>
       <c r="F20" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G20" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
-          <t>OLU47D</t>
+          <t>FQV7YE</t>
         </is>
       </c>
       <c r="I20" s="5" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="J20" s="5" t="inlineStr">
         <is>
-          <t>DOUGLAS HENRIQUE MOREIRA ALVES</t>
+          <t>CLEITON FERNANDES DE ASSIS</t>
         </is>
       </c>
       <c r="K20" s="5" t="inlineStr">
@@ -4190,7 +4190,7 @@
         </is>
       </c>
       <c r="M20" s="6" t="n">
-        <v>45715.49236111111</v>
+        <v>45749.42847222222</v>
       </c>
       <c r="N20" s="5" t="inlineStr">
         <is>
@@ -4209,12 +4209,12 @@
       </c>
       <c r="Q20" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R20" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S20" s="5" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="V20" s="5" t="inlineStr">
         <is>
-          <t>Invent Comercio E Servicos Empresariais Ltda.</t>
+          <t>Mei Instalacao Industrial Ltda</t>
         </is>
       </c>
       <c r="W20" s="5" t="inlineStr">
@@ -4248,7 +4248,7 @@
         </is>
       </c>
       <c r="Y20" s="5" t="n">
-        <v>3022672814</v>
+        <v>3022838325</v>
       </c>
       <c r="Z20" s="5" t="inlineStr">
         <is>
@@ -4261,10 +4261,10 @@
         </is>
       </c>
       <c r="AB20" s="5" t="n">
-        <v>1466.89</v>
+        <v>2397.77</v>
       </c>
       <c r="AC20" s="5" t="n">
-        <v>50.3</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="AD20" s="5" t="n">
         <v>0</v>
@@ -4279,7 +4279,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="5" t="n">
-        <v>73.34</v>
+        <v>263.75</v>
       </c>
       <c r="AI20" s="5" t="inlineStr">
         <is>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>21770662</v>
+        <v>21932362</v>
       </c>
       <c r="B21" s="5" t="n">
-        <v>22690533</v>
+        <v>22831065</v>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
@@ -4340,24 +4340,24 @@
         </is>
       </c>
       <c r="D21" s="6" t="n">
-        <v>45722.77173611111</v>
+        <v>45751.67569444444</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>45722.77847222222</v>
+        <v>45751.68184027778</v>
       </c>
       <c r="F21" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="G21" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>03 a 05 dias</t>
         </is>
       </c>
       <c r="H21" s="5" t="inlineStr">
         <is>
-          <t>XLIT6G</t>
+          <t>LA9572851DUTQ</t>
         </is>
       </c>
       <c r="I21" s="5" t="inlineStr">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="J21" s="5" t="inlineStr">
         <is>
-          <t>ANTONIO MARCOS BEZERRA</t>
+          <t>THIAGO BARCELOS SANTOS</t>
         </is>
       </c>
       <c r="K21" s="5" t="inlineStr">
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="M21" s="6" t="n">
-        <v>45719.77152777778</v>
+        <v>45750.67569444444</v>
       </c>
       <c r="N21" s="5" t="inlineStr">
         <is>
@@ -4400,12 +4400,12 @@
       </c>
       <c r="Q21" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R21" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S21" s="5" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="V21" s="5" t="inlineStr">
         <is>
-          <t>Supermercado da Familia</t>
+          <t>Kontrip - Vendas Cartao de Credito</t>
         </is>
       </c>
       <c r="W21" s="5" t="inlineStr">
@@ -4435,11 +4435,11 @@
       </c>
       <c r="X21" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y21" s="5" t="n">
-        <v>3022690532</v>
+        <v>2226728170</v>
       </c>
       <c r="Z21" s="5" t="inlineStr">
         <is>
@@ -4452,10 +4452,10 @@
         </is>
       </c>
       <c r="AB21" s="5" t="n">
-        <v>750</v>
+        <v>1663.84</v>
       </c>
       <c r="AC21" s="5" t="n">
-        <v>31.44</v>
+        <v>112.28</v>
       </c>
       <c r="AD21" s="5" t="n">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="5" t="n">
-        <v>82.5</v>
+        <v>28.45</v>
       </c>
       <c r="AI21" s="5" t="inlineStr">
         <is>
@@ -4513,579 +4513,6 @@
         </is>
       </c>
       <c r="AQ21" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="n">
-        <v>21770625</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>22690503</v>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="n">
-        <v>45722.76629629629</v>
-      </c>
-      <c r="E22" s="6" t="n">
-        <v>45722.7712962963</v>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G22" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H22" s="5" t="inlineStr">
-        <is>
-          <t>EQUL7B</t>
-        </is>
-      </c>
-      <c r="I22" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J22" s="5" t="inlineStr">
-        <is>
-          <t>ROBERTO NASCIMENTO OLIVEIRA</t>
-        </is>
-      </c>
-      <c r="K22" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L22" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M22" s="6" t="n">
-        <v>45719.76597222222</v>
-      </c>
-      <c r="N22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q22" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="R22" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="S22" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T22" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U22" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V22" s="5" t="inlineStr">
-        <is>
-          <t>Vpr Consultoria, Eventos, Servicos e Treinamentos Ltda</t>
-        </is>
-      </c>
-      <c r="W22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X22" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y22" s="5" t="n">
-        <v>3022690502</v>
-      </c>
-      <c r="Z22" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB22" s="5" t="n">
-        <v>144.85</v>
-      </c>
-      <c r="AC22" s="5" t="n">
-        <v>44.27</v>
-      </c>
-      <c r="AD22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="5" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="AI22" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ22" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
-        </is>
-      </c>
-      <c r="AK22" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL22" s="5" t="inlineStr">
-        <is>
-          <t>Falha no processo de integração</t>
-        </is>
-      </c>
-      <c r="AM22" s="5" t="inlineStr">
-        <is>
-          <t>Análise Benner</t>
-        </is>
-      </c>
-      <c r="AN22" s="5" t="inlineStr">
-        <is>
-          <t>Sistema</t>
-        </is>
-      </c>
-      <c r="AO22" s="5" t="inlineStr">
-        <is>
-          <t>Sistêmico</t>
-        </is>
-      </c>
-      <c r="AP22" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ22" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="5" t="n">
-        <v>21767443</v>
-      </c>
-      <c r="B23" s="5" t="n">
-        <v>22689192</v>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D23" s="6" t="n">
-        <v>45722.47490740741</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>45722.65681712963</v>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G23" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H23" s="5" t="inlineStr">
-        <is>
-          <t>GSVOYM</t>
-        </is>
-      </c>
-      <c r="I23" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J23" s="5" t="inlineStr">
-        <is>
-          <t>VALTON PESSOA</t>
-        </is>
-      </c>
-      <c r="K23" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L23" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M23" s="6" t="n">
-        <v>45716.47430555556</v>
-      </c>
-      <c r="N23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P23" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q23" s="5" t="inlineStr">
-        <is>
-          <t>Invoice</t>
-        </is>
-      </c>
-      <c r="R23" s="5" t="inlineStr">
-        <is>
-          <t>Cartão convênio</t>
-        </is>
-      </c>
-      <c r="S23" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T23" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U23" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Dalazen &amp; Pessoa Sociedade de Advogados</t>
-        </is>
-      </c>
-      <c r="V23" s="5" t="inlineStr">
-        <is>
-          <t>Dalazen &amp; Pessoa Sociedade de Advogados</t>
-        </is>
-      </c>
-      <c r="W23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X23" s="5" t="inlineStr">
-        <is>
-          <t>Latam Airlines Brasil</t>
-        </is>
-      </c>
-      <c r="Y23" s="5" t="n">
-        <v>2872417069</v>
-      </c>
-      <c r="Z23" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB23" s="5" t="n">
-        <v>1595.44</v>
-      </c>
-      <c r="AC23" s="5" t="n">
-        <v>654.11</v>
-      </c>
-      <c r="AD23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ23" s="5" t="inlineStr">
-        <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
-        </is>
-      </c>
-      <c r="AK23" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL23" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM23" s="5" t="inlineStr">
-        <is>
-          <t>Campo centro de custo</t>
-        </is>
-      </c>
-      <c r="AN23" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO23" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP23" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ23" s="5" t="inlineStr">
-        <is>
-          <t>Central de Emissão</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="5" t="n">
-        <v>21761614</v>
-      </c>
-      <c r="B24" s="5" t="n">
-        <v>22681572</v>
-      </c>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D24" s="6" t="n">
-        <v>45721.56907407408</v>
-      </c>
-      <c r="E24" s="6" t="n">
-        <v>45721.57837962963</v>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G24" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H24" s="5" t="inlineStr">
-        <is>
-          <t>GZAOZZ</t>
-        </is>
-      </c>
-      <c r="I24" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
-        <is>
-          <t>RAFAELA TRINDADE MAR</t>
-        </is>
-      </c>
-      <c r="K24" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L24" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M24" s="6" t="n">
-        <v>45716.56875</v>
-      </c>
-      <c r="N24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P24" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q24" s="5" t="inlineStr">
-        <is>
-          <t>Invoice</t>
-        </is>
-      </c>
-      <c r="R24" s="5" t="inlineStr">
-        <is>
-          <t>Cartão convênio</t>
-        </is>
-      </c>
-      <c r="S24" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T24" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U24" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Stark Bank</t>
-        </is>
-      </c>
-      <c r="V24" s="5" t="inlineStr">
-        <is>
-          <t>Stark Bank S.a.</t>
-        </is>
-      </c>
-      <c r="W24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X24" s="5" t="inlineStr">
-        <is>
-          <t>American Airlines</t>
-        </is>
-      </c>
-      <c r="Y24" s="5" t="n">
-        <v>2872417070</v>
-      </c>
-      <c r="Z24" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB24" s="5" t="n">
-        <v>3307.35</v>
-      </c>
-      <c r="AC24" s="5" t="n">
-        <v>325.86</v>
-      </c>
-      <c r="AD24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ24" s="5" t="inlineStr">
-        <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
-        </is>
-      </c>
-      <c r="AK24" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL24" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AM24" s="5" t="inlineStr">
-        <is>
-          <t>Campo centro de custo</t>
-        </is>
-      </c>
-      <c r="AN24" s="5" t="inlineStr">
-        <is>
-          <t>Dados Gerenciais</t>
-        </is>
-      </c>
-      <c r="AO24" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP24" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ24" s="5" t="inlineStr">
         <is>
           <t>Central de Emissão</t>
         </is>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -711,19 +711,19 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45797.55842592593</v>
+        <v>45797.55833333333</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45804.39674768518</v>
+        <v>45804.39652777778</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>09 a 15 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>16 a 23 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45797.55842592593</v>
+        <v>45797.55833333333</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45804.39674768518</v>
+        <v>45804.39652777778</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>09 a 15 dias</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>16 a 23 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -1082,10 +1082,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22256533</v>
+        <v>22288924</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23122511</v>
+        <v>23149489</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45804.41667824074</v>
+        <v>45810.43055555555</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45804.41798611111</v>
+        <v>45813.40277777778</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
@@ -1105,36 +1105,34 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="inlineStr">
-        <is>
-          <t>LA9570661UBBE</t>
-        </is>
+          <t>03 a 05 dias</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2118605269</v>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>Galvão/Gustavo</t>
+          <t>ANTONIO MARCOS BEZERRA</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45804.41180555556</v>
+        <v>45807.43055555555</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1153,17 +1151,17 @@
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Múltiplos</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Múltiplos</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>Aéreo</t>
+          <t>Hotel</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
@@ -1178,7 +1176,7 @@
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Supermercado da Familia</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1186,13 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
-        </is>
-      </c>
-      <c r="Y4" s="5" t="n">
-        <v>2234114019</v>
+          <t>Trend</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>729.4400000000001</v>
+        <v>798</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>107.34</v>
+        <v>39.9</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>12.47</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>lançado prejuízo de 0,30</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>A soma das outras taxas dos registros múltiplos ultrapassa a outras taxas da accounting</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="AQ4" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22259464</v>
+        <v>22302724</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23125316</v>
+        <v>23161265</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45804.73643518519</v>
+        <v>45812.47986111111</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45804.73822916667</v>
+        <v>45813.42361111111</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>SZJCWB</t>
+          <t>LA9575741ZYZD</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>MIRANDA DE CARVALHO/JEMIMA</t>
+          <t>DUARTE/JUCINALDO</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45804.23333333333</v>
+        <v>45812.525</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Tecnoativa Consultoria e Sistemas Ltda</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2138575710</v>
+        <v>2235495400</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>662.54</v>
+        <v>1315.12</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>107.34</v>
+        <v>60.62</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>39.75</v>
+        <v>44.98</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Contrato de fornecedor</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1458,27 +1458,27 @@
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>22258674</v>
+        <v>22302724</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23124553</v>
+        <v>23161266</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45804.66953703704</v>
+        <v>45812.47986111111</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45804.67202546296</v>
+        <v>45813.42361111111</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>IYJIGQ</t>
+          <t>LA9575741ZYZD</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>ROBERT MOTTA/ALLAN</t>
+          <t>MACEDO/HIOSERY</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45804.16597222222</v>
+        <v>45812.525</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1535,12 +1535,12 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Pse Ltda</t>
+          <t>Tecnoativa Consultoria e Sistemas Ltda</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="X6" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2138567408</v>
+        <v>2235495401</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>515.79</v>
+        <v>1315.12</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>400</v>
+        <v>60.62</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Contrato de fornecedor</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1649,16 +1649,16 @@
       </c>
       <c r="AQ6" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>22259450</v>
+        <v>22310473</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>23125302</v>
+        <v>23167442</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
@@ -1666,10 +1666,10 @@
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45804.73473379629</v>
+        <v>45813.57847222222</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45804.73584490741</v>
+        <v>45813.57986111111</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>LA9579083DCQJ</t>
+          <t>KFJIPY</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>MIRANDA DE CARVALHO/JEMIMA</t>
+          <t>Luis Pereira Soares/Sergio</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45804.23055555556</v>
+        <v>45813.07708333333</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Pessoa e Pessoa Advogados Associados</t>
+          <t>Rought Promocoes e Eventos Eireli</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>2234186657</v>
+        <v>289519877</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>729.4400000000001</v>
+        <v>1443.33</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>107.34</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="AH7" s="5" t="n">
-        <v>12.47</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="5" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Falta de informação Gerencial</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Campo Centro de custo passageiro</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Dados Gerenciais</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1840,27 +1840,27 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>22258935</v>
+        <v>22311863</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>23124906</v>
+        <v>23168631</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45804.70649305556</v>
+        <v>45813.64791666667</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45804.71613425926</v>
+        <v>45813.65277777778</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -1874,31 +1874,31 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>MFDTGY</t>
+          <t>SHZF4F</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>CARLANGELO JOSE COSTA DUARTE</t>
+          <t>Caporal/Rosana</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L8" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45803.70625</v>
+        <v>45813.46875</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="U8" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>Independente</t>
         </is>
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Semog Administracao de Bens</t>
+          <t>Tap Air Portugal</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>3023124905</v>
+        <v>231555273</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>593.17</v>
+        <v>494.8</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>58.89</v>
+        <v>102.74</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1987,16 +1987,16 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>53.39</v>
+        <v>44.53</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ8" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">35Ocorreu a seguinte exceção ao gerar a ordem de venda: Ocorreu a seguinte exceção ao inserir o item da ordem de venda:  Faltou informar rateio de </t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK8" s="5" t="inlineStr">
@@ -2006,22 +2006,22 @@
       </c>
       <c r="AL8" s="5" t="inlineStr">
         <is>
-          <t>Falha no processo de integração</t>
+          <t>Centro de custo</t>
         </is>
       </c>
       <c r="AM8" s="5" t="inlineStr">
         <is>
-          <t>Análise Benner</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AN8" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO8" s="5" t="inlineStr">
         <is>
-          <t>Sistêmico</t>
+          <t>Qualidade dos dados</t>
         </is>
       </c>
       <c r="AP8" s="5" t="inlineStr">

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ8"/>
+  <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,14 +711,14 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45797.55833333333</v>
+        <v>45797.55842592593</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45804.39652777778</v>
+        <v>45813.756875</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
@@ -902,14 +902,14 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45797.55833333333</v>
+        <v>45797.55842592593</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45804.39652777778</v>
+        <v>45813.756875</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>09 a 15 dias</t>
+          <t>0 a 02 dias</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
@@ -1082,10 +1082,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22288924</v>
+        <v>22313775</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23149489</v>
+        <v>23170592</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45810.43055555555</v>
+        <v>45813.79019675926</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45813.40277777778</v>
+        <v>45813.80194444444</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
@@ -1105,34 +1105,36 @@
       </c>
       <c r="G4" s="5" t="inlineStr">
         <is>
-          <t>03 a 05 dias</t>
-        </is>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>2118605269</v>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>FGALJK</t>
+        </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>MANUAL</t>
+          <t>EBOOKING</t>
         </is>
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>ANTONIO MARCOS BEZERRA</t>
+          <t>Victor Araujo Brandao/João</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="L4" s="5" t="inlineStr">
         <is>
-          <t>Juliana Cardoso</t>
+          <t>Kontrip</t>
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45807.43055555555</v>
+        <v>45813.28888888889</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1151,17 +1153,17 @@
       </c>
       <c r="Q4" s="5" t="inlineStr">
         <is>
-          <t>Múltiplos</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R4" s="5" t="inlineStr">
         <is>
-          <t>Múltiplos</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S4" s="5" t="inlineStr">
         <is>
-          <t>Hotel</t>
+          <t>Aéreo</t>
         </is>
       </c>
       <c r="T4" s="5" t="inlineStr">
@@ -1176,7 +1178,7 @@
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Supermercado da Familia</t>
+          <t>Brandares Imoveis</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1186,13 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Trend</t>
-        </is>
-      </c>
-      <c r="Y4" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>Gol Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y4" s="5" t="n">
+        <v>2139117209</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>798</v>
+        <v>118.74</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>39.9</v>
+        <v>158.74</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
-          <t>lançado prejuízo de 0,30</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>A soma das outras taxas dos registros múltiplos ultrapassa a outras taxas da accounting</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Não identificado</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Análise Benner</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Sistema</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1267,16 +1267,16 @@
       </c>
       <c r="AQ4" s="5" t="inlineStr">
         <is>
-          <t>Operações - KONTRIP</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22302724</v>
+        <v>22312694</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23161265</v>
+        <v>23169466</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45812.47986111111</v>
+        <v>45813.71387731482</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45813.42361111111</v>
+        <v>45813.71604166667</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LA9575741ZYZD</t>
+          <t>LODIGX</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>DUARTE/JUCINALDO</t>
+          <t>Rodrigues Monteiro/Marcos</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45812.525</v>
+        <v>45813.21180555555</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Tecnoativa Consultoria e Sistemas Ltda</t>
+          <t>Rought Promocoes e Eventos Eireli</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Gol Linhas Aereas</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2235495400</v>
+        <v>2139105886</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>1315.12</v>
+        <v>200</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>60.62</v>
+        <v>395.57</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>44.98</v>
+        <v>40</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>Necessário cadastrar um contrato para o cliente ""</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Contrato de fornecedor</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Análise Cadastro</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
@@ -1467,18 +1467,18 @@
         <v>22302724</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23161266</v>
+        <v>23161265</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45812.47986111111</v>
+        <v>45812.48054398148</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45813.42361111111</v>
+        <v>45813.42415509259</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>MACEDO/HIOSERY</t>
+          <t>DUARTE/JUCINALDO</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2235495401</v>
+        <v>2235495400</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>0</v>
+        <v>44.98</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
@@ -1655,21 +1655,21 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>22310473</v>
+        <v>22302724</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>23167442</v>
+        <v>23161266</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45813.57847222222</v>
+        <v>45812.48054398148</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45813.57986111111</v>
+        <v>45813.42415509259</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>KFJIPY</t>
+          <t>LA9575741ZYZD</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>Luis Pereira Soares/Sergio</t>
+          <t>MACEDO/HIOSERY</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45813.07708333333</v>
+        <v>45812.525</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Rought Promocoes e Eventos Eireli</t>
+          <t>Tecnoativa Consultoria e Sistemas Ltda</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>289519877</v>
+        <v>2235495401</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1443.33</v>
+        <v>1315.12</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>0</v>
+        <v>60.62</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Necessário cadastrar um contrato para o cliente ""</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Contrato de fornecedor</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Análise Cadastro</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1840,196 +1840,1915 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
+        <v>22312999</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>23169769</v>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>45813.743125</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>45813.74434027778</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>ZI626S</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>FERREIRA DE JESUS/MARCOS</t>
+        </is>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>45813.24097222222</v>
+      </c>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P8" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>Nossa Engenharia e Servicos</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y8" s="5" t="n">
+        <v>486548517</v>
+      </c>
+      <c r="Z8" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA8" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB8" s="5" t="n">
+        <v>1138.68</v>
+      </c>
+      <c r="AC8" s="5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AD8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI8" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ8" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK8" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL8" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM8" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN8" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO8" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP8" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ8" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>22310473</v>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>23167442</v>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>45813.57912037037</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>45813.57991898148</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>KFJIPY</t>
+        </is>
+      </c>
+      <c r="I9" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>Luis Pereira Soares/Sergio</t>
+        </is>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L9" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>45813.07708333333</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R9" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S9" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T9" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U9" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V9" s="5" t="inlineStr">
+        <is>
+          <t>Rought Promocoes e Eventos Eireli</t>
+        </is>
+      </c>
+      <c r="W9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X9" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y9" s="5" t="n">
+        <v>289519877</v>
+      </c>
+      <c r="Z9" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA9" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB9" s="5" t="n">
+        <v>1443.33</v>
+      </c>
+      <c r="AC9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ9" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK9" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL9" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM9" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN9" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO9" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP9" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ9" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="n">
+        <v>22314900</v>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>23171674</v>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>45813.86827546296</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>45813.86915509259</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G10" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>KFJIPY</t>
+        </is>
+      </c>
+      <c r="I10" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>Luis Pereira Soares/Sergio</t>
+        </is>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>45813.36666666667</v>
+      </c>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P10" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R10" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S10" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>Rought Promocoes e Eventos Eireli</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="n">
+        <v>240179552</v>
+      </c>
+      <c r="Z10" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA10" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB10" s="5" t="n">
+        <v>3903.93</v>
+      </c>
+      <c r="AC10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ10" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK10" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL10" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM10" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN10" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO10" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP10" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ10" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="n">
+        <v>22313001</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>23169771</v>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>45813.74326388889</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>45813.74435185185</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>KFJIPY</t>
+        </is>
+      </c>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>Luis Pereira Soares/Sergio</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>45813.24166666667</v>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U11" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V11" s="5" t="inlineStr">
+        <is>
+          <t>Rought Promocoes e Eventos Eireli</t>
+        </is>
+      </c>
+      <c r="W11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X11" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y11" s="5" t="n">
+        <v>597368275</v>
+      </c>
+      <c r="Z11" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA11" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB11" s="5" t="n">
+        <v>2495.76</v>
+      </c>
+      <c r="AC11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ11" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK11" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL11" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM11" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN11" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO11" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP11" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ11" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="n">
+        <v>22312955</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>23169723</v>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>45813.73967592593</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>45813.74278935185</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>MQBYXX</t>
+        </is>
+      </c>
+      <c r="I12" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>de Aguiar Ribeiro/Gustavo</t>
+        </is>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L12" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>45813.2375</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P12" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R12" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S12" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T12" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U12" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V12" s="5" t="inlineStr">
+        <is>
+          <t>Tributo Devido Contabilidade e Assessoria Tributaria Ltda</t>
+        </is>
+      </c>
+      <c r="W12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X12" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y12" s="5" t="n">
+        <v>725121233</v>
+      </c>
+      <c r="Z12" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA12" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB12" s="5" t="n">
+        <v>791.24</v>
+      </c>
+      <c r="AC12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ12" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK12" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL12" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM12" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN12" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO12" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP12" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ12" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>22312955</v>
+      </c>
+      <c r="B13" s="5" t="n">
+        <v>23169724</v>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>ACC02</t>
+        </is>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>45813.73967592593</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>45813.74278935185</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G13" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>MQBYXX</t>
+        </is>
+      </c>
+      <c r="I13" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>Brandao Mauricio/Renata</t>
+        </is>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L13" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>45813.2375</v>
+      </c>
+      <c r="N13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P13" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q13" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R13" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S13" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T13" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U13" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V13" s="5" t="inlineStr">
+        <is>
+          <t>Tributo Devido Contabilidade e Assessoria Tributaria Ltda</t>
+        </is>
+      </c>
+      <c r="W13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X13" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y13" s="5" t="n">
+        <v>924273890</v>
+      </c>
+      <c r="Z13" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA13" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB13" s="5" t="n">
+        <v>791.23</v>
+      </c>
+      <c r="AC13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ13" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK13" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL13" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM13" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN13" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO13" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP13" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ13" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
+        <v>22312955</v>
+      </c>
+      <c r="B14" s="5" t="n">
+        <v>23169725</v>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>ACC03</t>
+        </is>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>45813.73967592593</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>45813.74278935185</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>MQBYXX</t>
+        </is>
+      </c>
+      <c r="I14" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>Gustavo Mauricio Ribeiro/Luiz</t>
+        </is>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L14" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>45813.2375</v>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P14" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q14" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R14" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S14" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T14" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U14" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V14" s="5" t="inlineStr">
+        <is>
+          <t>Tributo Devido Contabilidade e Assessoria Tributaria Ltda</t>
+        </is>
+      </c>
+      <c r="W14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X14" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y14" s="5" t="n">
+        <v>531911178</v>
+      </c>
+      <c r="Z14" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA14" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB14" s="5" t="n">
+        <v>791.23</v>
+      </c>
+      <c r="AC14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ14" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK14" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL14" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM14" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN14" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO14" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP14" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ14" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="n">
+        <v>22313722</v>
+      </c>
+      <c r="B15" s="5" t="n">
+        <v>23170546</v>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>ACC01</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>45813.78186342592</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>45813.8046412037</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>AH7WNC</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>EBOOKING</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>LUIS DA COSTA/TEOBALDO</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>45813.28125</v>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>Cartão de crédito</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>Atakarejo Distribuidor de Alimentos e Bebidas Eireli</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>Azul Linhas Aereas</t>
+        </is>
+      </c>
+      <c r="Y15" s="5" t="n">
+        <v>385668313</v>
+      </c>
+      <c r="Z15" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA15" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB15" s="5" t="n">
+        <v>1776.2</v>
+      </c>
+      <c r="AC15" s="5" t="n">
+        <v>75.95999999999999</v>
+      </c>
+      <c r="AD15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5" t="inlineStr">
+        <is>
+          <t>obs</t>
+        </is>
+      </c>
+      <c r="AJ15" s="5" t="inlineStr">
+        <is>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+        </is>
+      </c>
+      <c r="AK15" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL15" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de RLOC</t>
+        </is>
+      </c>
+      <c r="AM15" s="5" t="inlineStr">
+        <is>
+          <t>Campo RLOC</t>
+        </is>
+      </c>
+      <c r="AN15" s="5" t="inlineStr">
+        <is>
+          <t>Duplicidade de Contabilização</t>
+        </is>
+      </c>
+      <c r="AO15" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP15" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ15" s="5" t="inlineStr">
+        <is>
+          <t>Conciliação aérea</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="n">
         <v>22311863</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B16" s="5" t="n">
         <v>23168631</v>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr">
         <is>
           <t>ACC01</t>
         </is>
       </c>
-      <c r="D8" s="6" t="n">
-        <v>45813.64791666667</v>
-      </c>
-      <c r="E8" s="6" t="n">
-        <v>45813.65277777778</v>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="D16" s="6" t="n">
+        <v>45813.64858796296</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>45813.6531712963</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>0 a 02 dias</t>
         </is>
       </c>
-      <c r="G8" s="5" t="inlineStr">
+      <c r="G16" s="5" t="inlineStr">
         <is>
           <t>0 a 02 dias</t>
         </is>
       </c>
-      <c r="H8" s="5" t="inlineStr">
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>SHZF4F</t>
         </is>
       </c>
-      <c r="I8" s="5" t="inlineStr">
+      <c r="I16" s="5" t="inlineStr">
         <is>
           <t>EBOOKING</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J16" s="5" t="inlineStr">
         <is>
           <t>Caporal/Rosana</t>
         </is>
       </c>
-      <c r="K8" s="5" t="inlineStr">
+      <c r="K16" s="5" t="inlineStr">
         <is>
           <t>Kontrip</t>
         </is>
       </c>
-      <c r="L8" s="5" t="inlineStr">
+      <c r="L16" s="5" t="inlineStr">
         <is>
           <t>Kontrip</t>
         </is>
       </c>
-      <c r="M8" s="6" t="n">
+      <c r="M16" s="6" t="n">
         <v>45813.46875</v>
       </c>
-      <c r="N8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P8" s="5" t="inlineStr">
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P16" s="5" t="inlineStr">
         <is>
           <t>OFF LINE</t>
         </is>
       </c>
-      <c r="Q8" s="5" t="inlineStr">
+      <c r="Q16" s="5" t="inlineStr">
         <is>
           <t>Cartão de crédito</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
+      <c r="R16" s="5" t="inlineStr">
         <is>
           <t>Cartão de crédito</t>
         </is>
       </c>
-      <c r="S8" s="5" t="inlineStr">
+      <c r="S16" s="5" t="inlineStr">
         <is>
           <t>Aéreo</t>
         </is>
       </c>
-      <c r="T8" s="5" t="inlineStr">
+      <c r="T16" s="5" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="U8" s="5" t="inlineStr">
+      <c r="U16" s="5" t="inlineStr">
         <is>
           <t>Independente</t>
         </is>
       </c>
-      <c r="V8" s="5" t="inlineStr">
+      <c r="V16" s="5" t="inlineStr">
         <is>
           <t>Tap Air Portugal</t>
         </is>
       </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
+      <c r="W16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X16" s="5" t="inlineStr">
         <is>
           <t>Azul Linhas Aereas</t>
         </is>
       </c>
-      <c r="Y8" s="5" t="n">
+      <c r="Y16" s="5" t="n">
         <v>231555273</v>
       </c>
-      <c r="Z8" s="5" t="inlineStr">
+      <c r="Z16" s="5" t="inlineStr">
         <is>
           <t>KONTRIP</t>
         </is>
       </c>
-      <c r="AA8" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB8" s="5" t="n">
+      <c r="AA16" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB16" s="5" t="n">
         <v>494.8</v>
       </c>
-      <c r="AC8" s="5" t="n">
+      <c r="AC16" s="5" t="n">
         <v>102.74</v>
       </c>
-      <c r="AD8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="5" t="n">
+      <c r="AD16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="5" t="n">
         <v>44.53</v>
       </c>
-      <c r="AI8" s="5" t="inlineStr">
+      <c r="AI16" s="5" t="inlineStr">
         <is>
           <t>obs</t>
         </is>
       </c>
-      <c r="AJ8" s="5" t="inlineStr">
+      <c r="AJ16" s="5" t="inlineStr">
         <is>
           <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
-      <c r="AK8" s="5" t="inlineStr">
+      <c r="AK16" s="5" t="inlineStr">
         <is>
           <t>KONTRIP</t>
         </is>
       </c>
-      <c r="AL8" s="5" t="inlineStr">
+      <c r="AL16" s="5" t="inlineStr">
         <is>
           <t>Centro de custo</t>
         </is>
       </c>
-      <c r="AM8" s="5" t="inlineStr">
+      <c r="AM16" s="5" t="inlineStr">
         <is>
           <t>Falta de informação Gerencial</t>
         </is>
       </c>
-      <c r="AN8" s="5" t="inlineStr">
+      <c r="AN16" s="5" t="inlineStr">
         <is>
           <t>Dados do Fornecedor</t>
         </is>
       </c>
-      <c r="AO8" s="5" t="inlineStr">
+      <c r="AO16" s="5" t="inlineStr">
         <is>
           <t>Qualidade dos dados</t>
         </is>
       </c>
-      <c r="AP8" s="5" t="inlineStr">
+      <c r="AP16" s="5" t="inlineStr">
         <is>
           <t>KONTRIP VIAGENS</t>
         </is>
       </c>
-      <c r="AQ8" s="5" t="inlineStr">
+      <c r="AQ16" s="5" t="inlineStr">
+        <is>
+          <t>Operações - KONTRIP</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="n">
+        <v>22311247</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>23169833</v>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>45813.62217592593</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>45813.75545138889</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>0 a 02 dias</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>UUSWOT</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>MANUAL</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>VERONICA VALENTE DANTAS</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="L17" s="5" t="inlineStr">
+        <is>
+          <t>Juliana Cardoso</t>
+        </is>
+      </c>
+      <c r="M17" s="6" t="n">
+        <v>45812.62152777778</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="P17" s="5" t="inlineStr">
+        <is>
+          <t>OFF LINE</t>
+        </is>
+      </c>
+      <c r="Q17" s="5" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="R17" s="5" t="inlineStr">
+        <is>
+          <t>Cartão convênio</t>
+        </is>
+      </c>
+      <c r="S17" s="5" t="inlineStr">
+        <is>
+          <t>Aéreo</t>
+        </is>
+      </c>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="U17" s="5" t="inlineStr">
+        <is>
+          <t>Grupo Kontrip</t>
+        </is>
+      </c>
+      <c r="V17" s="5" t="inlineStr">
+        <is>
+          <t>Kontrip - Vendas Cartao de Credito</t>
+        </is>
+      </c>
+      <c r="W17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="X17" s="5" t="inlineStr">
+        <is>
+          <t>Jetsmart Airlines</t>
+        </is>
+      </c>
+      <c r="Y17" s="5" t="n">
+        <v>2971247609</v>
+      </c>
+      <c r="Z17" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AA17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AB17" s="5" t="n">
+        <v>432.72</v>
+      </c>
+      <c r="AC17" s="5" t="n">
+        <v>88.87</v>
+      </c>
+      <c r="AD17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AJ17" s="5" t="inlineStr">
+        <is>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
+        </is>
+      </c>
+      <c r="AK17" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP</t>
+        </is>
+      </c>
+      <c r="AL17" s="5" t="inlineStr">
+        <is>
+          <t>Não identificado</t>
+        </is>
+      </c>
+      <c r="AM17" s="5" t="inlineStr">
+        <is>
+          <t>Análise Benner</t>
+        </is>
+      </c>
+      <c r="AN17" s="5" t="inlineStr">
+        <is>
+          <t>Sistema</t>
+        </is>
+      </c>
+      <c r="AO17" s="5" t="inlineStr">
+        <is>
+          <t>Qualidade dos dados</t>
+        </is>
+      </c>
+      <c r="AP17" s="5" t="inlineStr">
+        <is>
+          <t>KONTRIP VIAGENS</t>
+        </is>
+      </c>
+      <c r="AQ17" s="5" t="inlineStr">
         <is>
           <t>Operações - KONTRIP</t>
         </is>

--- a/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
+++ b/PROCESSADO ERRO/EMPRESAS/Relatorio - KONTRIP VIAGENS.xlsx
@@ -473,7 +473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ17"/>
+  <dimension ref="A1:AQ15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,19 +711,19 @@
         </is>
       </c>
       <c r="D2" s="6" t="n">
-        <v>45797.55842592593</v>
+        <v>45797.55833333333</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>45813.756875</v>
+        <v>45813.75625</v>
       </c>
       <c r="F2" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>16 a 23 dias</t>
+          <t>24 a 31 dias</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="D3" s="6" t="n">
-        <v>45797.55842592593</v>
+        <v>45797.55833333333</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>45813.756875</v>
+        <v>45813.75625</v>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>0 a 02 dias</t>
+          <t>06 a 08 dias</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>16 a 23 dias</t>
+          <t>24 a 31 dias</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
@@ -1082,10 +1082,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>22313775</v>
+        <v>22389368</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>23170592</v>
+        <v>23242091</v>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
@@ -1093,10 +1093,10 @@
         </is>
       </c>
       <c r="D4" s="6" t="n">
-        <v>45813.79019675926</v>
+        <v>45821.40902777778</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>45813.80194444444</v>
+        <v>45821.41111111111</v>
       </c>
       <c r="F4" s="5" t="inlineStr">
         <is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="H4" s="5" t="inlineStr">
         <is>
-          <t>FGALJK</t>
+          <t>KDMLXO</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="J4" s="5" t="inlineStr">
         <is>
-          <t>Victor Araujo Brandao/João</t>
+          <t>PESSOA/VALTON</t>
         </is>
       </c>
       <c r="K4" s="5" t="inlineStr">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="M4" s="6" t="n">
-        <v>45813.28888888889</v>
+        <v>45821.40763888889</v>
       </c>
       <c r="N4" s="5" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="V4" s="5" t="inlineStr">
         <is>
-          <t>Brandares Imoveis</t>
+          <t>Pessoa e Pessoa Advogados Associados</t>
         </is>
       </c>
       <c r="W4" s="5" t="inlineStr">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="X4" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y4" s="5" t="n">
-        <v>2139117209</v>
+        <v>2236807478</v>
       </c>
       <c r="Z4" s="5" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="AB4" s="5" t="n">
-        <v>118.74</v>
+        <v>2108.64</v>
       </c>
       <c r="AC4" s="5" t="n">
-        <v>158.74</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="AD4" s="5" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="AH4" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="5" t="inlineStr">
         <is>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="AJ4" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>Centro de custo não preenchido! (ACC01)</t>
         </is>
       </c>
       <c r="AK4" s="5" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="AL4" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Centro de custo</t>
         </is>
       </c>
       <c r="AM4" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AN4" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados do Fornecedor</t>
         </is>
       </c>
       <c r="AO4" s="5" t="inlineStr">
@@ -1267,27 +1267,27 @@
       </c>
       <c r="AQ4" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>22312694</v>
+        <v>22389421</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>23169466</v>
+        <v>23242153</v>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D5" s="6" t="n">
-        <v>45813.71387731482</v>
+        <v>45821.41597222222</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>45813.71604166667</v>
+        <v>45821.42083333333</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
@@ -1301,31 +1301,31 @@
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>LODIGX</t>
+          <t>LA9575118FYTL</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>Rodrigues Monteiro/Marcos</t>
+          <t>ISABELLA AZEVEDO</t>
         </is>
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L5" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M5" s="6" t="n">
-        <v>45813.21180555555</v>
+        <v>45821.41597222222</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
@@ -1344,12 +1344,12 @@
       </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R5" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S5" s="5" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="V5" s="5" t="inlineStr">
         <is>
-          <t>Rought Promocoes e Eventos Eireli</t>
+          <t>Opportunity Gestora</t>
         </is>
       </c>
       <c r="W5" s="5" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="X5" s="5" t="inlineStr">
         <is>
-          <t>Gol Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y5" s="5" t="n">
-        <v>2139105886</v>
+        <v>2236738225</v>
       </c>
       <c r="Z5" s="5" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         </is>
       </c>
       <c r="AB5" s="5" t="n">
-        <v>200</v>
+        <v>630.8200000000001</v>
       </c>
       <c r="AC5" s="5" t="n">
-        <v>395.57</v>
+        <v>78.38</v>
       </c>
       <c r="AD5" s="5" t="n">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="AH5" s="5" t="n">
-        <v>40</v>
+        <v>105.66</v>
       </c>
       <c r="AI5" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ5" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
         </is>
       </c>
       <c r="AK5" s="5" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="AL5" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM5" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN5" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO5" s="5" t="inlineStr">
@@ -1458,16 +1458,16 @@
       </c>
       <c r="AQ5" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>22302724</v>
+        <v>22382280</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>23161265</v>
+        <v>23235464</v>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D6" s="6" t="n">
-        <v>45812.48054398148</v>
+        <v>45820.50277777778</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>45813.42415509259</v>
+        <v>45820.50694444445</v>
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>LA9575741ZYZD</t>
+          <t>HTLFXN</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>DUARTE/JUCINALDO</t>
+          <t>FELIPE ARCOVERDE/ROBERTA</t>
         </is>
       </c>
       <c r="K6" s="5" t="inlineStr">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="M6" s="6" t="n">
-        <v>45812.525</v>
+        <v>45820.50069444445</v>
       </c>
       <c r="N6" s="5" t="inlineStr">
         <is>
@@ -1535,12 +1535,12 @@
       </c>
       <c r="Q6" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R6" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S6" s="5" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="V6" s="5" t="inlineStr">
         <is>
-          <t>Tecnoativa Consultoria e Sistemas Ltda</t>
+          <t>Pailon Comunicacao Visual Ltda</t>
         </is>
       </c>
       <c r="W6" s="5" t="inlineStr">
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="Y6" s="5" t="n">
-        <v>2235495400</v>
+        <v>2236741167</v>
       </c>
       <c r="Z6" s="5" t="inlineStr">
         <is>
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="AB6" s="5" t="n">
-        <v>1315.12</v>
+        <v>928.95</v>
       </c>
       <c r="AC6" s="5" t="n">
-        <v>60.62</v>
+        <v>387.73</v>
       </c>
       <c r="AD6" s="5" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="AH6" s="5" t="n">
-        <v>44.98</v>
+        <v>40</v>
       </c>
       <c r="AI6" s="5" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="AJ6" s="5" t="inlineStr">
         <is>
-          <t>Necessário cadastrar um contrato para o cliente ""</t>
+          <t>Venda concluída automaticamente</t>
         </is>
       </c>
       <c r="AK6" s="5" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="AL6" s="5" t="inlineStr">
         <is>
-          <t>Contrato de fornecedor</t>
+          <t>Não identificado</t>
         </is>
       </c>
       <c r="AM6" s="5" t="inlineStr">
         <is>
-          <t>Análise Cadastro</t>
+          <t>Análise Benner</t>
         </is>
       </c>
       <c r="AN6" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Sistema</t>
         </is>
       </c>
       <c r="AO6" s="5" t="inlineStr">
@@ -1649,27 +1649,27 @@
       </c>
       <c r="AQ6" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Operações - KONTRIP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>22302724</v>
+        <v>22383390</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>23161266</v>
+        <v>23236596</v>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ACC02</t>
+          <t>ACC01</t>
         </is>
       </c>
       <c r="D7" s="6" t="n">
-        <v>45812.48054398148</v>
+        <v>45820.61666666667</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45813.42415509259</v>
+        <v>45820.61875</v>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
-          <t>LA9575741ZYZD</t>
+          <t>OIUN2M</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
-          <t>MACEDO/HIOSERY</t>
+          <t>Piccinin/Clayton</t>
         </is>
       </c>
       <c r="K7" s="5" t="inlineStr">
@@ -1707,7 +1707,7 @@
         </is>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45812.525</v>
+        <v>45820.61527777778</v>
       </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="Q7" s="5" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="R7" s="5" t="inlineStr">
         <is>
-          <t>Cartão convênio</t>
+          <t>Cartão de crédito</t>
         </is>
       </c>
       <c r="S7" s="5" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="V7" s="5" t="inlineStr">
         <is>
-          <t>Tecnoativa Consultoria e Sistemas Ltda</t>
+          <t>Central de Registro de Direitos Creditorios S.a.</t>
         </is>
       </c>
       <c r="W7" s="5" t="inlineStr">
@@ -1761,11 +1761,11 @@
       </c>
       <c r="X7" s="5" t="inlineStr">
         <is>
-          <t>Latam Airlines Brasil</t>
+          <t>Azul Linhas Aereas</t>
         </is>
       </c>
       <c r="Y7" s="5" t="n">
-        <v>2235495401</v>
+        <v>594413750</v>
       </c>
       <c r="Z7" s="5" t="inlineStr">
         <is>
@@ -1778,10 +1778,10 @@
         </is>
       </c>
       <c r="AB7" s="5" t="n">
-        <v>1315.12</v>
+        <v>130</v>
       </c>
       <c r="AC7" s="5" t="n">
-        <v>60.62</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="5" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="AJ7" s="5" t="inlineStr">
         <is>
-          <t>Necessário cadastrar um contrato para o cliente ""</t>
+          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
         </is>
       </c>
       <c r="AK7" s="5" t="inlineStr">
@@ -1815,17 +1815,17 @@
       </c>
       <c r="AL7" s="5" t="inlineStr">
         <is>
-          <t>Contrato de fornecedor</t>
+          <t>Duplicidade de RLOC</t>
         </is>
       </c>
       <c r="AM7" s="5" t="inlineStr">
         <is>
-          <t>Análise Cadastro</t>
+          <t>Campo RLOC</t>
         </is>
       </c>
       <c r="AN7" s="5" t="inlineStr">
         <is>
-          <t>Dados do Fornecedor</t>
+          <t>Duplicidade de Contabilização</t>
         </is>
       </c>
       <c r="AO7" s="5" t="inlineStr">
@@ -1840,16 +1840,16 @@
       </c>
       <c r="AQ7" s="5" t="inlineStr">
         <is>
-          <t>Central de Emissão</t>
+          <t>Conciliação aérea</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>22312999</v>
+        <v>22383426</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>23169769</v>
+        <v>23236636</v>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="D8" s="6" t="n">
-        <v>45813.743125</v>
+        <v>45820.61944444444</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>45813.74434027778</v>
+        <v>45820.62152777778</v>
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="H8" s="5" t="inlineStr">
         <is>
-          <t>ZI626S</t>
+          <t>LPJEGX</t>
         </is>
       </c>
       <c r="I8" s="5" t="inlineStr">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="J8" s="5" t="inlineStr">
         <is>
-          <t>FERREIRA DE JESUS/MARCOS</t>
+          <t>Junior Lustri/Vitor</t>
         </is>
       </c>
       <c r="K8" s="5" t="inlineStr">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="M8" s="6" t="n">
-        <v>45813.24097222222</v>
+        <v>45820.61736111111</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="V8" s="5" t="inlineStr">
         <is>
-          <t>Nossa Engenharia e Servicos</t>
+          <t>Central de Registro de Direitos Creditorios S.a.</t>
         </is>
       </c>
       <c r="W8" s="5" t="inlineStr">
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="Y8" s="5" t="n">
-        <v>486548517</v>
+        <v>259059399</v>
       </c>
       <c r="Z8" s="5" t="inlineStr">
         <is>
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="AB8" s="5" t="n">
-        <v>1138.68</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="5" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="5" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="5" t="inlineStr">
         <is>
@@ -2037,10 +2037,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>22310473</v>
+        <v>22382744</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>23167442</v>
+        <v>23235932</v>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
@@ -2048,10 +2048,10 @@
         </is>
       </c>
       <c r="D9" s="6" t="n">
-        <v>45813.57912037037</v>
+        <v>45820.55208333334</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>45813.57991898148</v>
+        <v>45820.55486111111</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>KFJIPY</t>
+          <t>HHJ7RS</t>
         </is>
       </c>
       <c r="I9" s="5" t="inlineStr">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>Luis Pereira Soares/Sergio</t>
+          <t>Cruz/André</t>
         </is>
       </c>
       <c r="K9" s="5" t="inlineStr">
@@ -2089,7 +2089,7 @@
         </is>
       </c>
       <c r="M9" s="6" t="n">
-        <v>45813.07708333333</v>
+        <v>45820.55208333334</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="V9" s="5" t="inlineStr">
         <is>
-          <t>Rought Promocoes e Eventos Eireli</t>
+          <t>Safira Gestao E Prestacao De Servicos Em Energia</t>
         </is>
       </c>
       <c r="W9" s="5" t="inlineStr">
@@ -2147,7 +2147,7 @@
         </is>
       </c>
       <c r="Y9" s="5" t="n">
-        <v>289519877</v>
+        <v>662108566</v>
       </c>
       <c r="Z9" s="5" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
       <c r="AB9" s="5" t="n">
-        <v>1443.33</v>
+        <v>260</v>
       </c>
       <c r="AC9" s="5" t="n">
         <v>0</v>
@@ -2228,10 +2228,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>22314900</v>
+        <v>22382765</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>23171674</v>
+        <v>23235958</v>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="D10" s="6" t="n">
-        <v>45813.86827546296</v>
+        <v>45820.55763888889</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45813.86915509259</v>
+        <v>45820.55972222222</v>
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>KFJIPY</t>
+          <t>HHJ7RS</t>
         </is>
       </c>
       <c r="I10" s="5" t="inlineStr">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="J10" s="5" t="inlineStr">
         <is>
-          <t>Luis Pereira Soares/Sergio</t>
+          <t>Cruz/André</t>
         </is>
       </c>
       <c r="K10" s="5" t="inlineStr">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45813.36666666667</v>
+        <v>45820.55625</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="V10" s="5" t="inlineStr">
         <is>
-          <t>Rought Promocoes e Eventos Eireli</t>
+          <t>Safira Gestao E Prestacao De Servicos Em Energia</t>
         </is>
       </c>
       <c r="W10" s="5" t="inlineStr">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="Y10" s="5" t="n">
-        <v>240179552</v>
+        <v>107335499</v>
       </c>
       <c r="Z10" s="5" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="AB10" s="5" t="n">
-        <v>3903.93</v>
+        <v>130</v>
       </c>
       <c r="AC10" s="5" t="n">
         <v>0</v>
@@ -2419,21 +2419,21 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>22313001</v>
+        <v>22382765</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>23169771</v>
+        <v>23235959</v>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC02</t>
         </is>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45813.74326388889</v>
+        <v>45820.55763888889</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>45813.74435185185</v>
+        <v>45820.55972222222</v>
       </c>
       <c r="F11" s="5" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
       </c>
       <c r="H11" s="5" t="inlineStr">
         <is>
-          <t>KFJIPY</t>
+          <t>HHJ7RS</t>
         </is>
       </c>
       <c r="I11" s="5" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="J11" s="5" t="inlineStr">
         <is>
-          <t>Luis Pereira Soares/Sergio</t>
+          <t>Lorencete Pinto/Ricardo</t>
         </is>
       </c>
       <c r="K11" s="5" t="inlineStr">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45813.24166666667</v>
+        <v>45820.55625</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="V11" s="5" t="inlineStr">
         <is>
-          <t>Rought Promocoes e Eventos Eireli</t>
+          <t>Safira Gestao E Prestacao De Servicos Em Energia</t>
         </is>
       </c>
       <c r="W11" s="5" t="inlineStr">
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="Y11" s="5" t="n">
-        <v>597368275</v>
+        <v>305056289</v>
       </c>
       <c r="Z11" s="5" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="AB11" s="5" t="n">
-        <v>2495.76</v>
+        <v>130</v>
       </c>
       <c r="AC11" s="5" t="n">
         <v>0</v>
@@ -2610,10 +2610,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>22312955</v>
+        <v>22389641</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>23169723</v>
+        <v>23242384</v>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
@@ -2621,10 +2621,10 @@
         </is>
       </c>
       <c r="D12" s="6" t="n">
-        <v>45813.73967592593</v>
+        <v>45821.44375</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>45813.74278935185</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>MQBYXX</t>
+          <t>LA9577828ABPY</t>
         </is>
       </c>
       <c r="I12" s="5" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>de Aguiar Ribeiro/Gustavo</t>
+          <t>BARBOSA MENDONÇA/ALEXANDRE</t>
         </is>
       </c>
       <c r="K12" s="5" t="inlineStr">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="M12" s="6" t="n">
-        <v>45813.2375</v>
+        <v>45821.44375</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="V12" s="5" t="inlineStr">
         <is>
-          <t>Tributo Devido Contabilidade e Assessoria Tributaria Ltda</t>
+          <t>The School Of Life Escola De Filosofia Ltda</t>
         </is>
       </c>
       <c r="W12" s="5" t="inlineStr">
@@ -2716,11 +2716,11 @@
       </c>
       <c r="X12" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y12" s="5" t="n">
-        <v>725121233</v>
+        <v>2236871912</v>
       </c>
       <c r="Z12" s="5" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="AB12" s="5" t="n">
-        <v>791.24</v>
+        <v>0.01</v>
       </c>
       <c r="AC12" s="5" t="n">
         <v>0</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>22312955</v>
+        <v>22389641</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>23169724</v>
+        <v>23242385</v>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
@@ -2812,10 +2812,10 @@
         </is>
       </c>
       <c r="D13" s="6" t="n">
-        <v>45813.73967592593</v>
+        <v>45821.44375</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>45813.74278935185</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="F13" s="5" t="inlineStr">
         <is>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>MQBYXX</t>
+          <t>LA9577828ABPY</t>
         </is>
       </c>
       <c r="I13" s="5" t="inlineStr">
@@ -2839,7 +2839,7 @@
       </c>
       <c r="J13" s="5" t="inlineStr">
         <is>
-          <t>Brandao Mauricio/Renata</t>
+          <t>REAL DE LIMA/ERIKA</t>
         </is>
       </c>
       <c r="K13" s="5" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="M13" s="6" t="n">
-        <v>45813.2375</v>
+        <v>45821.44375</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="V13" s="5" t="inlineStr">
         <is>
-          <t>Tributo Devido Contabilidade e Assessoria Tributaria Ltda</t>
+          <t>The School Of Life Escola De Filosofia Ltda</t>
         </is>
       </c>
       <c r="W13" s="5" t="inlineStr">
@@ -2907,11 +2907,11 @@
       </c>
       <c r="X13" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y13" s="5" t="n">
-        <v>924273890</v>
+        <v>2236871584</v>
       </c>
       <c r="Z13" s="5" t="inlineStr">
         <is>
@@ -2924,7 +2924,7 @@
         </is>
       </c>
       <c r="AB13" s="5" t="n">
-        <v>791.23</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="5" t="n">
         <v>0</v>
@@ -2992,10 +2992,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>22312955</v>
+        <v>22389641</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>23169725</v>
+        <v>23242386</v>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
@@ -3003,10 +3003,10 @@
         </is>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45813.73967592593</v>
+        <v>45821.44375</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45813.74278935185</v>
+        <v>45821.44791666666</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>MQBYXX</t>
+          <t>LA9577828ABPY</t>
         </is>
       </c>
       <c r="I14" s="5" t="inlineStr">
@@ -3030,7 +3030,7 @@
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>Gustavo Mauricio Ribeiro/Luiz</t>
+          <t>GONÇALVES ZUPPO/THIAGO</t>
         </is>
       </c>
       <c r="K14" s="5" t="inlineStr">
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="M14" s="6" t="n">
-        <v>45813.2375</v>
+        <v>45821.44375</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="V14" s="5" t="inlineStr">
         <is>
-          <t>Tributo Devido Contabilidade e Assessoria Tributaria Ltda</t>
+          <t>The School Of Life Escola De Filosofia Ltda</t>
         </is>
       </c>
       <c r="W14" s="5" t="inlineStr">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="X14" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Latam Airlines Brasil</t>
         </is>
       </c>
       <c r="Y14" s="5" t="n">
-        <v>531911178</v>
+        <v>2236871819</v>
       </c>
       <c r="Z14" s="5" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         </is>
       </c>
       <c r="AB14" s="5" t="n">
-        <v>791.23</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="5" t="n">
         <v>0</v>
@@ -3183,21 +3183,21 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>22313722</v>
+        <v>22389735</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>23170546</v>
+        <v>23242502</v>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>ACC01</t>
+          <t>ACC</t>
         </is>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45813.78186342592</v>
+        <v>45821.45625</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>45813.8046412037</v>
+        <v>45821.46527777778</v>
       </c>
       <c r="F15" s="5" t="inlineStr">
         <is>
@@ -3211,31 +3211,31 @@
       </c>
       <c r="H15" s="5" t="inlineStr">
         <is>
-          <t>AH7WNC</t>
+          <t>CPQDNZ</t>
         </is>
       </c>
       <c r="I15" s="5" t="inlineStr">
         <is>
-          <t>EBOOKING</t>
+          <t>MANUAL</t>
         </is>
       </c>
       <c r="J15" s="5" t="inlineStr">
         <is>
-          <t>LUIS DA COSTA/TEOBALDO</t>
+          <t>MARCOS BASTOS ARAUJO</t>
         </is>
       </c>
       <c r="K15" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="L15" s="5" t="inlineStr">
         <is>
-          <t>Kontrip</t>
+          <t>Juliana Cardoso</t>
         </is>
       </c>
       <c r="M15" s="6" t="n">
-        <v>45813.28125</v>
+        <v>45820.45625</v>
       </c>
       <c r="N15" s="5" t="inlineStr">
         <is>
@@ -3254,12 +3254,12 @@
       </c>
       <c r="Q15" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="R15" s="5" t="inlineStr">
         <is>
-          <t>Cartão de crédito</t>
+          <t>Cartão convênio</t>
         </is>
       </c>
       <c r="S15" s="5" t="inlineStr">
@@ -3274,12 +3274,12 @@
       </c>
       <c r="U15" s="5" t="inlineStr">
         <is>
-          <t>Grupo Kontrip</t>
+          <t>-</t>
         </is>
       </c>
       <c r="V15" s="5" t="inlineStr">
         <is>
-          <t>Atakarejo Distribuidor de Alimentos e Bebidas Eireli</t>
+          <t>Baxtech</t>
         </is>
       </c>
       <c r="W15" s="5" t="inlineStr">
@@ -3289,11 +3289,11 @@
       </c>
       <c r="X15" s="5" t="inlineStr">
         <is>
-          <t>Azul Linhas Aereas</t>
+          <t>Air Canada</t>
         </is>
       </c>
       <c r="Y15" s="5" t="n">
-        <v>385668313</v>
+        <v>2971307924</v>
       </c>
       <c r="Z15" s="5" t="inlineStr">
         <is>
@@ -3306,10 +3306,10 @@
         </is>
       </c>
       <c r="AB15" s="5" t="n">
-        <v>1776.2</v>
+        <v>7593.96</v>
       </c>
       <c r="AC15" s="5" t="n">
-        <v>75.95999999999999</v>
+        <v>364.95</v>
       </c>
       <c r="AD15" s="5" t="n">
         <v>0</v>
@@ -3328,12 +3328,12 @@
       </c>
       <c r="AI15" s="5" t="inlineStr">
         <is>
-          <t>obs</t>
+          <t>-</t>
         </is>
       </c>
       <c r="AJ15" s="5" t="inlineStr">
         <is>
-          <t>Pnr já existente. A duplicidade de rloc é permitida apenas 6 meses após o último pnr emitido</t>
+          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
         </is>
       </c>
       <c r="AK15" s="5" t="inlineStr">
@@ -3343,17 +3343,17 @@
       </c>
       <c r="AL15" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de RLOC</t>
+          <t>Falta de informação Gerencial</t>
         </is>
       </c>
       <c r="AM15" s="5" t="inlineStr">
         <is>
-          <t>Campo RLOC</t>
+          <t>Rateio de centro de custo/projeto</t>
         </is>
       </c>
       <c r="AN15" s="5" t="inlineStr">
         <is>
-          <t>Duplicidade de Contabilização</t>
+          <t>Dados Gerenciais</t>
         </is>
       </c>
       <c r="AO15" s="5" t="inlineStr">
@@ -3368,389 +3368,7 @@
       </c>
       <c r="AQ15" s="5" t="inlineStr">
         <is>
-          <t>Conciliação aérea</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="n">
-        <v>22311863</v>
-      </c>
-      <c r="B16" s="5" t="n">
-        <v>23168631</v>
-      </c>
-      <c r="C16" s="5" t="inlineStr">
-        <is>
-          <t>ACC01</t>
-        </is>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>45813.64858796296</v>
-      </c>
-      <c r="E16" s="6" t="n">
-        <v>45813.6531712963</v>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G16" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>SHZF4F</t>
-        </is>
-      </c>
-      <c r="I16" s="5" t="inlineStr">
-        <is>
-          <t>EBOOKING</t>
-        </is>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>Caporal/Rosana</t>
-        </is>
-      </c>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>Kontrip</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>Kontrip</t>
-        </is>
-      </c>
-      <c r="M16" s="6" t="n">
-        <v>45813.46875</v>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>Cartão de crédito</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>Independente</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>Tap Air Portugal</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="inlineStr">
-        <is>
-          <t>Azul Linhas Aereas</t>
-        </is>
-      </c>
-      <c r="Y16" s="5" t="n">
-        <v>231555273</v>
-      </c>
-      <c r="Z16" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA16" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB16" s="5" t="n">
-        <v>494.8</v>
-      </c>
-      <c r="AC16" s="5" t="n">
-        <v>102.74</v>
-      </c>
-      <c r="AD16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="5" t="n">
-        <v>44.53</v>
-      </c>
-      <c r="AI16" s="5" t="inlineStr">
-        <is>
-          <t>obs</t>
-        </is>
-      </c>
-      <c r="AJ16" s="5" t="inlineStr">
-        <is>
-          <t>Centro de custo não preenchido! (ACC01)</t>
-        </is>
-      </c>
-      <c r="AK16" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL16" s="5" t="inlineStr">
-        <is>
-          <t>Centro de custo</t>
-        </is>
-      </c>
-      <c r="AM16" s="5" t="inlineStr">
-        <is>
-          <t>Falta de informação Gerencial</t>
-        </is>
-      </c>
-      <c r="AN16" s="5" t="inlineStr">
-        <is>
-          <t>Dados do Fornecedor</t>
-        </is>
-      </c>
-      <c r="AO16" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP16" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ16" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="n">
-        <v>22311247</v>
-      </c>
-      <c r="B17" s="5" t="n">
-        <v>23169833</v>
-      </c>
-      <c r="C17" s="5" t="inlineStr">
-        <is>
-          <t>ACC</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>45813.62217592593</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>45813.75545138889</v>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="G17" s="5" t="inlineStr">
-        <is>
-          <t>0 a 02 dias</t>
-        </is>
-      </c>
-      <c r="H17" s="5" t="inlineStr">
-        <is>
-          <t>UUSWOT</t>
-        </is>
-      </c>
-      <c r="I17" s="5" t="inlineStr">
-        <is>
-          <t>MANUAL</t>
-        </is>
-      </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>VERONICA VALENTE DANTAS</t>
-        </is>
-      </c>
-      <c r="K17" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="L17" s="5" t="inlineStr">
-        <is>
-          <t>Juliana Cardoso</t>
-        </is>
-      </c>
-      <c r="M17" s="6" t="n">
-        <v>45812.62152777778</v>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>OFF LINE</t>
-        </is>
-      </c>
-      <c r="Q17" s="5" t="inlineStr">
-        <is>
-          <t>Invoice</t>
-        </is>
-      </c>
-      <c r="R17" s="5" t="inlineStr">
-        <is>
-          <t>Cartão convênio</t>
-        </is>
-      </c>
-      <c r="S17" s="5" t="inlineStr">
-        <is>
-          <t>Aéreo</t>
-        </is>
-      </c>
-      <c r="T17" s="5" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>Grupo Kontrip</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>Kontrip - Vendas Cartao de Credito</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="inlineStr">
-        <is>
-          <t>Jetsmart Airlines</t>
-        </is>
-      </c>
-      <c r="Y17" s="5" t="n">
-        <v>2971247609</v>
-      </c>
-      <c r="Z17" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AA17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AB17" s="5" t="n">
-        <v>432.72</v>
-      </c>
-      <c r="AC17" s="5" t="n">
-        <v>88.87</v>
-      </c>
-      <c r="AD17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="AJ17" s="5" t="inlineStr">
-        <is>
-          <t>36Faltou informar rateio de centro de custo/projeto abaixo da accounting</t>
-        </is>
-      </c>
-      <c r="AK17" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP</t>
-        </is>
-      </c>
-      <c r="AL17" s="5" t="inlineStr">
-        <is>
-          <t>Não identificado</t>
-        </is>
-      </c>
-      <c r="AM17" s="5" t="inlineStr">
-        <is>
-          <t>Análise Benner</t>
-        </is>
-      </c>
-      <c r="AN17" s="5" t="inlineStr">
-        <is>
-          <t>Sistema</t>
-        </is>
-      </c>
-      <c r="AO17" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade dos dados</t>
-        </is>
-      </c>
-      <c r="AP17" s="5" t="inlineStr">
-        <is>
-          <t>KONTRIP VIAGENS</t>
-        </is>
-      </c>
-      <c r="AQ17" s="5" t="inlineStr">
-        <is>
-          <t>Operações - KONTRIP</t>
+          <t>Central de Emissão</t>
         </is>
       </c>
     </row>
